--- a/results.xlsx
+++ b/results.xlsx
@@ -9,10 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="460" windowWidth="19400" windowHeight="13780" tabRatio="500"/>
+    <workbookView xWindow="880" yWindow="460" windowWidth="25500" windowHeight="13780" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="T" sheetId="2" r:id="rId2"/>
+    <sheet name="D" sheetId="4" r:id="rId3"/>
+    <sheet name="K" sheetId="5" r:id="rId4"/>
+    <sheet name="S" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -24,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="11">
   <si>
     <t>Average Error (voxels)</t>
   </si>
@@ -34,12 +38,47 @@
   <si>
     <t>Patient Number</t>
   </si>
+  <si>
+    <t>Trial 1</t>
+  </si>
+  <si>
+    <t>Trial 2</t>
+  </si>
+  <si>
+    <t>Trial 3</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>voxel</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>jobID</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -81,20 +120,48 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -371,8 +438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AJ24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O2" workbookViewId="0">
-      <selection activeCell="S14" sqref="S14:U24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1537,6 +1604,14 @@
       <c r="U14" t="s">
         <v>1</v>
       </c>
+      <c r="Z14">
+        <f>AVERAGE(Z2:Z11)</f>
+        <v>343.2</v>
+      </c>
+      <c r="AA14">
+        <f>AVERAGE(AA2:AA11)</f>
+        <v>138</v>
+      </c>
     </row>
     <row r="15" spans="1:36" x14ac:dyDescent="0.2">
       <c r="S15">
@@ -1651,4 +1726,1144 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AJ10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="7.33203125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="7.33203125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" style="12" customWidth="1"/>
+    <col min="6" max="6" width="7.33203125" style="8" customWidth="1"/>
+    <col min="7" max="7" width="7.33203125" style="7" customWidth="1"/>
+    <col min="8" max="8" width="7.33203125" style="12" customWidth="1"/>
+    <col min="9" max="9" width="7.33203125" style="8" customWidth="1"/>
+    <col min="10" max="10" width="7.33203125" style="7" customWidth="1"/>
+    <col min="11" max="11" width="7.33203125" style="12" customWidth="1"/>
+    <col min="12" max="12" width="7.33203125" style="8" customWidth="1"/>
+    <col min="13" max="13" width="7.33203125" style="7" customWidth="1"/>
+    <col min="14" max="14" width="7.33203125" style="12" customWidth="1"/>
+    <col min="15" max="15" width="7.33203125" style="8" customWidth="1"/>
+    <col min="16" max="16" width="7.33203125" style="7" customWidth="1"/>
+    <col min="17" max="17" width="7.33203125" style="14" customWidth="1"/>
+    <col min="18" max="36" width="7.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A1" s="4"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="4">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4">
+        <v>4</v>
+      </c>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4">
+        <v>10</v>
+      </c>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4">
+        <v>20</v>
+      </c>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4">
+        <v>40</v>
+      </c>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
+      <c r="AA1" s="4"/>
+      <c r="AB1" s="4"/>
+      <c r="AC1" s="4"/>
+      <c r="AD1" s="4"/>
+      <c r="AE1" s="4"/>
+      <c r="AF1" s="4"/>
+      <c r="AG1" s="4"/>
+      <c r="AH1" s="4"/>
+      <c r="AI1" s="4"/>
+      <c r="AJ1" s="4"/>
+    </row>
+    <row r="2" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4"/>
+      <c r="C2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="N2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="O2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q2" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="8">
+        <v>17.166666666666668</v>
+      </c>
+      <c r="D3" s="7">
+        <v>6.4766468385106843E-2</v>
+      </c>
+      <c r="E3" s="12">
+        <v>642</v>
+      </c>
+      <c r="F3" s="8">
+        <v>17.166666666666668</v>
+      </c>
+      <c r="G3" s="7">
+        <v>6.3874201365939631E-2</v>
+      </c>
+      <c r="H3" s="12">
+        <v>643</v>
+      </c>
+      <c r="L3" s="8">
+        <v>17.333333333333332</v>
+      </c>
+      <c r="M3" s="7">
+        <v>6.3918263934787403E-2</v>
+      </c>
+      <c r="N3" s="12">
+        <v>652</v>
+      </c>
+      <c r="O3" s="8">
+        <v>17.166666666666668</v>
+      </c>
+      <c r="P3" s="7">
+        <v>6.3428067856356032E-2</v>
+      </c>
+      <c r="Q3" s="14">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A4" s="5"/>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="L4" s="8">
+        <v>17.333333333333332</v>
+      </c>
+      <c r="M4" s="7">
+        <v>6.3918263934787403E-2</v>
+      </c>
+      <c r="N4" s="12">
+        <v>644</v>
+      </c>
+      <c r="O4" s="8">
+        <v>17.5</v>
+      </c>
+      <c r="P4" s="7">
+        <v>6.4408460013218774E-2</v>
+      </c>
+      <c r="Q4" s="14">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A5" s="5"/>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A6" s="5"/>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="8">
+        <f>AVERAGE(C3:C5)</f>
+        <v>17.166666666666668</v>
+      </c>
+      <c r="D6" s="7">
+        <f>AVERAGE(D3:D5)</f>
+        <v>6.4766468385106843E-2</v>
+      </c>
+      <c r="F6" s="8">
+        <f>AVERAGE(F3:F5)</f>
+        <v>17.166666666666668</v>
+      </c>
+      <c r="G6" s="7">
+        <f>AVERAGE(G3:G5)</f>
+        <v>6.3874201365939631E-2</v>
+      </c>
+      <c r="L6" s="8">
+        <f>AVERAGE(L3:L5)</f>
+        <v>17.333333333333332</v>
+      </c>
+      <c r="M6" s="7">
+        <f>AVERAGE(M3:M5)</f>
+        <v>6.3918263934787403E-2</v>
+      </c>
+      <c r="O6" s="8">
+        <f>AVERAGE(O3:O5)</f>
+        <v>17.333333333333336</v>
+      </c>
+      <c r="P6" s="7">
+        <f>AVERAGE(P3:P5)</f>
+        <v>6.3918263934787403E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A7" s="5">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="8">
+        <v>17.666666666666668</v>
+      </c>
+      <c r="D7" s="7">
+        <v>9.4573327906661203E-2</v>
+      </c>
+      <c r="E7" s="12">
+        <v>646</v>
+      </c>
+      <c r="F7" s="8">
+        <v>17.5</v>
+      </c>
+      <c r="G7" s="7">
+        <v>9.3956043956043955E-2</v>
+      </c>
+      <c r="H7" s="12">
+        <v>647</v>
+      </c>
+      <c r="L7" s="8">
+        <v>17.333333333333332</v>
+      </c>
+      <c r="M7" s="7">
+        <v>9.3338760005426666E-2</v>
+      </c>
+      <c r="N7" s="12">
+        <v>653</v>
+      </c>
+      <c r="O7" s="8">
+        <v>17</v>
+      </c>
+      <c r="P7" s="7">
+        <v>9.2104192104192087E-2</v>
+      </c>
+      <c r="Q7" s="14">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A8" s="5"/>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="L8" s="8">
+        <v>17</v>
+      </c>
+      <c r="M8" s="7">
+        <v>9.2104192104192087E-2</v>
+      </c>
+      <c r="N8" s="12">
+        <v>648</v>
+      </c>
+      <c r="O8" s="8">
+        <v>17.166666666666668</v>
+      </c>
+      <c r="P8" s="7">
+        <v>9.272147605480939E-2</v>
+      </c>
+      <c r="Q8" s="14">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A9" s="5"/>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A10" s="5"/>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="8">
+        <f>AVERAGE(C7:C9)</f>
+        <v>17.666666666666668</v>
+      </c>
+      <c r="D10" s="7">
+        <f>AVERAGE(D7:D9)</f>
+        <v>9.4573327906661203E-2</v>
+      </c>
+      <c r="F10" s="8">
+        <f>AVERAGE(F7:F9)</f>
+        <v>17.5</v>
+      </c>
+      <c r="G10" s="7">
+        <f>AVERAGE(G7:G9)</f>
+        <v>9.3956043956043955E-2</v>
+      </c>
+      <c r="L10" s="8">
+        <f>AVERAGE(L7:L9)</f>
+        <v>17.166666666666664</v>
+      </c>
+      <c r="M10" s="7">
+        <f>AVERAGE(M7:M9)</f>
+        <v>9.2721476054809376E-2</v>
+      </c>
+      <c r="O10" s="8">
+        <f>AVERAGE(O7:O9)</f>
+        <v>17.083333333333336</v>
+      </c>
+      <c r="P10" s="7">
+        <f>AVERAGE(P7:P9)</f>
+        <v>9.2412834079500739E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="AE1:AF1"/>
+    <mergeCell ref="AG1:AH1"/>
+    <mergeCell ref="AI1:AJ1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AJ10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S17" sqref="S17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="7.33203125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="7.33203125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" style="12" customWidth="1"/>
+    <col min="6" max="6" width="7.33203125" style="8" customWidth="1"/>
+    <col min="7" max="7" width="7.33203125" style="7" customWidth="1"/>
+    <col min="8" max="8" width="7.33203125" style="12" customWidth="1"/>
+    <col min="9" max="9" width="7.33203125" style="8" customWidth="1"/>
+    <col min="10" max="10" width="7.33203125" style="7" customWidth="1"/>
+    <col min="11" max="11" width="7.33203125" style="12" customWidth="1"/>
+    <col min="12" max="12" width="7.33203125" style="8" customWidth="1"/>
+    <col min="13" max="13" width="7.33203125" style="7" customWidth="1"/>
+    <col min="14" max="14" width="7.33203125" style="12" customWidth="1"/>
+    <col min="15" max="15" width="7.33203125" style="8" customWidth="1"/>
+    <col min="16" max="16" width="7.33203125" style="7" customWidth="1"/>
+    <col min="17" max="17" width="7.33203125" style="14" customWidth="1"/>
+    <col min="18" max="36" width="7.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A1" s="4"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="4">
+        <v>3</v>
+      </c>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4">
+        <v>9</v>
+      </c>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4">
+        <v>11</v>
+      </c>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4">
+        <v>13</v>
+      </c>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
+      <c r="AA1" s="4"/>
+      <c r="AB1" s="4"/>
+      <c r="AC1" s="4"/>
+      <c r="AD1" s="4"/>
+      <c r="AE1" s="4"/>
+      <c r="AF1" s="4"/>
+      <c r="AG1" s="4"/>
+      <c r="AH1" s="4"/>
+      <c r="AI1" s="4"/>
+      <c r="AJ1" s="4"/>
+    </row>
+    <row r="2" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4"/>
+      <c r="C2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="N2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="O2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q2" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A4" s="5"/>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A5" s="5"/>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A6" s="5"/>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="8" t="e">
+        <f>AVERAGE(C3:C5)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D6" s="7" t="e">
+        <f>AVERAGE(D3:D5)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F6" s="8" t="e">
+        <f>AVERAGE(F3:F5)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G6" s="7" t="e">
+        <f>AVERAGE(G3:G5)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L6" s="8" t="e">
+        <f>AVERAGE(L3:L5)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M6" s="7" t="e">
+        <f>AVERAGE(M3:M5)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O6" s="8" t="e">
+        <f>AVERAGE(O3:O5)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P6" s="7" t="e">
+        <f>AVERAGE(P3:P5)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A7" s="5">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A8" s="5"/>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A9" s="5"/>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A10" s="5"/>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="8" t="e">
+        <f>AVERAGE(C7:C9)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D10" s="7" t="e">
+        <f>AVERAGE(D7:D9)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F10" s="8" t="e">
+        <f>AVERAGE(F7:F9)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G10" s="7" t="e">
+        <f>AVERAGE(G7:G9)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L10" s="8" t="e">
+        <f>AVERAGE(L7:L9)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M10" s="7" t="e">
+        <f>AVERAGE(M7:M9)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O10" s="8" t="e">
+        <f>AVERAGE(O7:O9)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P10" s="7" t="e">
+        <f>AVERAGE(P7:P9)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="AE1:AF1"/>
+    <mergeCell ref="AG1:AH1"/>
+    <mergeCell ref="AI1:AJ1"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="O1:Q1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AJ10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R18" sqref="R18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="7.33203125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="7.33203125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" style="12" customWidth="1"/>
+    <col min="6" max="6" width="7.33203125" style="8" customWidth="1"/>
+    <col min="7" max="7" width="7.33203125" style="7" customWidth="1"/>
+    <col min="8" max="8" width="7.33203125" style="12" customWidth="1"/>
+    <col min="9" max="9" width="7.33203125" style="8" customWidth="1"/>
+    <col min="10" max="10" width="7.33203125" style="7" customWidth="1"/>
+    <col min="11" max="11" width="7.33203125" style="12" customWidth="1"/>
+    <col min="12" max="12" width="7.33203125" style="8" customWidth="1"/>
+    <col min="13" max="13" width="7.33203125" style="7" customWidth="1"/>
+    <col min="14" max="14" width="7.33203125" style="12" customWidth="1"/>
+    <col min="15" max="15" width="7.33203125" style="8" customWidth="1"/>
+    <col min="16" max="16" width="7.33203125" style="7" customWidth="1"/>
+    <col min="17" max="17" width="7.33203125" style="14" customWidth="1"/>
+    <col min="18" max="36" width="7.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A1" s="4"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="4">
+        <v>5</v>
+      </c>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4">
+        <v>10</v>
+      </c>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4">
+        <v>20</v>
+      </c>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4">
+        <v>40</v>
+      </c>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
+      <c r="AA1" s="4"/>
+      <c r="AB1" s="4"/>
+      <c r="AC1" s="4"/>
+      <c r="AD1" s="4"/>
+      <c r="AE1" s="4"/>
+      <c r="AF1" s="4"/>
+      <c r="AG1" s="4"/>
+      <c r="AH1" s="4"/>
+      <c r="AI1" s="4"/>
+      <c r="AJ1" s="4"/>
+    </row>
+    <row r="2" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4"/>
+      <c r="C2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="N2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="O2" s="9"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="13"/>
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A4" s="5"/>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A5" s="5"/>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A6" s="5"/>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="8" t="e">
+        <f>AVERAGE(C3:C5)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D6" s="7" t="e">
+        <f>AVERAGE(D3:D5)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F6" s="8" t="e">
+        <f>AVERAGE(F3:F5)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G6" s="7" t="e">
+        <f>AVERAGE(G3:G5)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L6" s="8" t="e">
+        <f>AVERAGE(L3:L5)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M6" s="7" t="e">
+        <f>AVERAGE(M3:M5)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A7" s="5">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A8" s="5"/>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A9" s="5"/>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A10" s="5"/>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="8" t="e">
+        <f>AVERAGE(C7:C9)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D10" s="7" t="e">
+        <f>AVERAGE(D7:D9)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F10" s="8" t="e">
+        <f>AVERAGE(F7:F9)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G10" s="7" t="e">
+        <f>AVERAGE(G7:G9)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L10" s="8" t="e">
+        <f>AVERAGE(L7:L9)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M10" s="7" t="e">
+        <f>AVERAGE(M7:M9)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="AE1:AF1"/>
+    <mergeCell ref="AG1:AH1"/>
+    <mergeCell ref="AI1:AJ1"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="O1:Q1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AJ10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T13" sqref="T13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="7.33203125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="7.33203125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" style="12" customWidth="1"/>
+    <col min="6" max="6" width="7.33203125" style="8" customWidth="1"/>
+    <col min="7" max="7" width="7.33203125" style="7" customWidth="1"/>
+    <col min="8" max="8" width="7.33203125" style="12" customWidth="1"/>
+    <col min="9" max="9" width="7.33203125" style="8" customWidth="1"/>
+    <col min="10" max="10" width="7.33203125" style="7" customWidth="1"/>
+    <col min="11" max="11" width="7.33203125" style="12" customWidth="1"/>
+    <col min="12" max="12" width="7.33203125" style="8" customWidth="1"/>
+    <col min="13" max="13" width="7.33203125" style="7" customWidth="1"/>
+    <col min="14" max="14" width="7.33203125" style="12" customWidth="1"/>
+    <col min="15" max="15" width="7.33203125" style="8" customWidth="1"/>
+    <col min="16" max="16" width="7.33203125" style="7" customWidth="1"/>
+    <col min="17" max="17" width="7.33203125" style="14" customWidth="1"/>
+    <col min="18" max="36" width="7.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A1" s="4"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="4">
+        <v>555</v>
+      </c>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4">
+        <v>999</v>
+      </c>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
+      <c r="AA1" s="4"/>
+      <c r="AB1" s="4"/>
+      <c r="AC1" s="4"/>
+      <c r="AD1" s="4"/>
+      <c r="AE1" s="4"/>
+      <c r="AF1" s="4"/>
+      <c r="AG1" s="4"/>
+      <c r="AH1" s="4"/>
+      <c r="AI1" s="4"/>
+      <c r="AJ1" s="4"/>
+    </row>
+    <row r="2" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4"/>
+      <c r="C2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="N2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="O2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q2" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A4" s="5"/>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A5" s="5"/>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A6" s="5"/>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="8" t="e">
+        <f>AVERAGE(C3:C5)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D6" s="7" t="e">
+        <f>AVERAGE(D3:D5)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F6" s="8" t="e">
+        <f>AVERAGE(F3:F5)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G6" s="7" t="e">
+        <f>AVERAGE(G3:G5)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L6" s="8" t="e">
+        <f>AVERAGE(L3:L5)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M6" s="7" t="e">
+        <f>AVERAGE(M3:M5)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O6" s="8" t="e">
+        <f>AVERAGE(O3:O5)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P6" s="7" t="e">
+        <f>AVERAGE(P3:P5)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A7" s="5">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A8" s="5"/>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A9" s="5"/>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A10" s="5"/>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="8" t="e">
+        <f>AVERAGE(C7:C9)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D10" s="7" t="e">
+        <f>AVERAGE(D7:D9)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F10" s="8" t="e">
+        <f>AVERAGE(F7:F9)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G10" s="7" t="e">
+        <f>AVERAGE(G7:G9)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L10" s="8" t="e">
+        <f>AVERAGE(L7:L9)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M10" s="7" t="e">
+        <f>AVERAGE(M7:M9)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O10" s="8" t="e">
+        <f>AVERAGE(O7:O9)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P10" s="7" t="e">
+        <f>AVERAGE(P7:P9)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="AE1:AF1"/>
+    <mergeCell ref="AG1:AH1"/>
+    <mergeCell ref="AI1:AJ1"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="O1:Q1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/results.xlsx
+++ b/results.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26230"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/courtneyguo/Desktop/superurop/Sherwood/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/TQin/Desktop/Sherwood-ckguo/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="880" yWindow="460" windowWidth="25500" windowHeight="13780" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="6160" yWindow="2640" windowWidth="25500" windowHeight="13780" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,9 @@
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -133,12 +136,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -156,6 +153,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1733,356 +1736,351 @@
   <dimension ref="A1:AJ10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="7.33203125" style="8" customWidth="1"/>
-    <col min="4" max="4" width="7.33203125" style="7" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" style="12" customWidth="1"/>
-    <col min="6" max="6" width="7.33203125" style="8" customWidth="1"/>
-    <col min="7" max="7" width="7.33203125" style="7" customWidth="1"/>
-    <col min="8" max="8" width="7.33203125" style="12" customWidth="1"/>
-    <col min="9" max="9" width="7.33203125" style="8" customWidth="1"/>
-    <col min="10" max="10" width="7.33203125" style="7" customWidth="1"/>
-    <col min="11" max="11" width="7.33203125" style="12" customWidth="1"/>
-    <col min="12" max="12" width="7.33203125" style="8" customWidth="1"/>
-    <col min="13" max="13" width="7.33203125" style="7" customWidth="1"/>
-    <col min="14" max="14" width="7.33203125" style="12" customWidth="1"/>
-    <col min="15" max="15" width="7.33203125" style="8" customWidth="1"/>
-    <col min="16" max="16" width="7.33203125" style="7" customWidth="1"/>
-    <col min="17" max="17" width="7.33203125" style="14" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="7.33203125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" style="10" customWidth="1"/>
+    <col min="6" max="6" width="7.33203125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="7.33203125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="7.33203125" style="10" customWidth="1"/>
+    <col min="9" max="9" width="7.33203125" style="6" customWidth="1"/>
+    <col min="10" max="10" width="7.33203125" style="5" customWidth="1"/>
+    <col min="11" max="11" width="7.33203125" style="10" customWidth="1"/>
+    <col min="12" max="12" width="7.33203125" style="6" customWidth="1"/>
+    <col min="13" max="13" width="7.33203125" style="5" customWidth="1"/>
+    <col min="14" max="14" width="7.33203125" style="10" customWidth="1"/>
+    <col min="15" max="15" width="7.33203125" style="6" customWidth="1"/>
+    <col min="16" max="16" width="7.33203125" style="5" customWidth="1"/>
+    <col min="17" max="17" width="7.33203125" style="12" customWidth="1"/>
     <col min="18" max="36" width="7.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A1" s="4"/>
+      <c r="A1" s="14"/>
       <c r="B1" s="3"/>
-      <c r="C1" s="4">
+      <c r="C1" s="14">
         <v>1</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4">
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14">
         <v>4</v>
       </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4">
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14">
         <v>10</v>
       </c>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4">
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14">
         <v>20</v>
       </c>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4">
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14">
         <v>40</v>
       </c>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="4"/>
-      <c r="AA1" s="4"/>
-      <c r="AB1" s="4"/>
-      <c r="AC1" s="4"/>
-      <c r="AD1" s="4"/>
-      <c r="AE1" s="4"/>
-      <c r="AF1" s="4"/>
-      <c r="AG1" s="4"/>
-      <c r="AH1" s="4"/>
-      <c r="AI1" s="4"/>
-      <c r="AJ1" s="4"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
+      <c r="V1" s="14"/>
+      <c r="W1" s="14"/>
+      <c r="X1" s="14"/>
+      <c r="Y1" s="14"/>
+      <c r="Z1" s="14"/>
+      <c r="AA1" s="14"/>
+      <c r="AB1" s="14"/>
+      <c r="AC1" s="14"/>
+      <c r="AD1" s="14"/>
+      <c r="AE1" s="14"/>
+      <c r="AF1" s="14"/>
+      <c r="AG1" s="14"/>
+      <c r="AH1" s="14"/>
+      <c r="AI1" s="14"/>
+      <c r="AJ1" s="14"/>
     </row>
     <row r="2" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4"/>
-      <c r="C2" s="9" t="s">
+      <c r="A2" s="14"/>
+      <c r="C2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="M2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="11" t="s">
+      <c r="N2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="O2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="P2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="Q2" s="13" t="s">
+      <c r="Q2" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A3" s="5">
+      <c r="A3" s="13">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="6">
         <v>17.166666666666668</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="5">
         <v>6.4766468385106843E-2</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="10">
         <v>642</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="6">
         <v>17.166666666666668</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="5">
         <v>6.3874201365939631E-2</v>
       </c>
-      <c r="H3" s="12">
+      <c r="H3" s="10">
         <v>643</v>
       </c>
-      <c r="L3" s="8">
+      <c r="L3" s="6">
         <v>17.333333333333332</v>
       </c>
-      <c r="M3" s="7">
+      <c r="M3" s="5">
         <v>6.3918263934787403E-2</v>
       </c>
-      <c r="N3" s="12">
+      <c r="N3" s="10">
         <v>652</v>
       </c>
-      <c r="O3" s="8">
+      <c r="O3" s="6">
         <v>17.166666666666668</v>
       </c>
-      <c r="P3" s="7">
+      <c r="P3" s="5">
         <v>6.3428067856356032E-2</v>
       </c>
-      <c r="Q3" s="14">
+      <c r="Q3" s="12">
         <v>650</v>
       </c>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A4" s="5"/>
+      <c r="A4" s="13"/>
       <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="8">
+      <c r="L4" s="6">
         <v>17.333333333333332</v>
       </c>
-      <c r="M4" s="7">
+      <c r="M4" s="5">
         <v>6.3918263934787403E-2</v>
       </c>
-      <c r="N4" s="12">
+      <c r="N4" s="10">
         <v>644</v>
       </c>
-      <c r="O4" s="8">
+      <c r="O4" s="6">
         <v>17.5</v>
       </c>
-      <c r="P4" s="7">
+      <c r="P4" s="5">
         <v>6.4408460013218774E-2</v>
       </c>
-      <c r="Q4" s="14">
+      <c r="Q4" s="12">
         <v>645</v>
       </c>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A5" s="5"/>
+      <c r="A5" s="13"/>
       <c r="B5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A6" s="5"/>
+      <c r="A6" s="13"/>
       <c r="B6" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="6">
         <f>AVERAGE(C3:C5)</f>
         <v>17.166666666666668</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="5">
         <f>AVERAGE(D3:D5)</f>
         <v>6.4766468385106843E-2</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="6">
         <f>AVERAGE(F3:F5)</f>
         <v>17.166666666666668</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="5">
         <f>AVERAGE(G3:G5)</f>
         <v>6.3874201365939631E-2</v>
       </c>
-      <c r="L6" s="8">
+      <c r="L6" s="6">
         <f>AVERAGE(L3:L5)</f>
         <v>17.333333333333332</v>
       </c>
-      <c r="M6" s="7">
+      <c r="M6" s="5">
         <f>AVERAGE(M3:M5)</f>
         <v>6.3918263934787403E-2</v>
       </c>
-      <c r="O6" s="8">
+      <c r="O6" s="6">
         <f>AVERAGE(O3:O5)</f>
         <v>17.333333333333336</v>
       </c>
-      <c r="P6" s="7">
+      <c r="P6" s="5">
         <f>AVERAGE(P3:P5)</f>
         <v>6.3918263934787403E-2</v>
       </c>
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A7" s="5">
+      <c r="A7" s="13">
         <v>4</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="6">
         <v>17.666666666666668</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="5">
         <v>9.4573327906661203E-2</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="10">
         <v>646</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="6">
         <v>17.5</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="5">
         <v>9.3956043956043955E-2</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H7" s="10">
         <v>647</v>
       </c>
-      <c r="L7" s="8">
+      <c r="L7" s="6">
         <v>17.333333333333332</v>
       </c>
-      <c r="M7" s="7">
+      <c r="M7" s="5">
         <v>9.3338760005426666E-2</v>
       </c>
-      <c r="N7" s="12">
+      <c r="N7" s="10">
         <v>653</v>
       </c>
-      <c r="O7" s="8">
+      <c r="O7" s="6">
         <v>17</v>
       </c>
-      <c r="P7" s="7">
+      <c r="P7" s="5">
         <v>9.2104192104192087E-2</v>
       </c>
-      <c r="Q7" s="14">
+      <c r="Q7" s="12">
         <v>651</v>
       </c>
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A8" s="5"/>
+      <c r="A8" s="13"/>
       <c r="B8" t="s">
         <v>4</v>
       </c>
-      <c r="L8" s="8">
+      <c r="L8" s="6">
         <v>17</v>
       </c>
-      <c r="M8" s="7">
+      <c r="M8" s="5">
         <v>9.2104192104192087E-2</v>
       </c>
-      <c r="N8" s="12">
+      <c r="N8" s="10">
         <v>648</v>
       </c>
-      <c r="O8" s="8">
+      <c r="O8" s="6">
         <v>17.166666666666668</v>
       </c>
-      <c r="P8" s="7">
+      <c r="P8" s="5">
         <v>9.272147605480939E-2</v>
       </c>
-      <c r="Q8" s="14">
+      <c r="Q8" s="12">
         <v>649</v>
       </c>
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A9" s="5"/>
+      <c r="A9" s="13"/>
       <c r="B9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A10" s="5"/>
+      <c r="A10" s="13"/>
       <c r="B10" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="6">
         <f>AVERAGE(C7:C9)</f>
         <v>17.666666666666668</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="5">
         <f>AVERAGE(D7:D9)</f>
         <v>9.4573327906661203E-2</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="6">
         <f>AVERAGE(F7:F9)</f>
         <v>17.5</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="5">
         <f>AVERAGE(G7:G9)</f>
         <v>9.3956043956043955E-2</v>
       </c>
-      <c r="L10" s="8">
+      <c r="L10" s="6">
         <f>AVERAGE(L7:L9)</f>
         <v>17.166666666666664</v>
       </c>
-      <c r="M10" s="7">
+      <c r="M10" s="5">
         <f>AVERAGE(M7:M9)</f>
         <v>9.2721476054809376E-2</v>
       </c>
-      <c r="O10" s="8">
+      <c r="O10" s="6">
         <f>AVERAGE(O7:O9)</f>
         <v>17.083333333333336</v>
       </c>
-      <c r="P10" s="7">
+      <c r="P10" s="5">
         <f>AVERAGE(P7:P9)</f>
         <v>9.2412834079500739E-2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="AA1:AB1"/>
     <mergeCell ref="AC1:AD1"/>
     <mergeCell ref="AE1:AF1"/>
     <mergeCell ref="AG1:AH1"/>
@@ -2091,6 +2089,11 @@
     <mergeCell ref="U1:V1"/>
     <mergeCell ref="W1:X1"/>
     <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="AA1:AB1"/>
     <mergeCell ref="O1:Q1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="I1:K1"/>
@@ -2105,243 +2108,334 @@
   <dimension ref="A1:AJ10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S17" sqref="S17"/>
+      <selection activeCell="T15" sqref="T15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="7.33203125" style="8" customWidth="1"/>
-    <col min="4" max="4" width="7.33203125" style="7" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" style="12" customWidth="1"/>
-    <col min="6" max="6" width="7.33203125" style="8" customWidth="1"/>
-    <col min="7" max="7" width="7.33203125" style="7" customWidth="1"/>
-    <col min="8" max="8" width="7.33203125" style="12" customWidth="1"/>
-    <col min="9" max="9" width="7.33203125" style="8" customWidth="1"/>
-    <col min="10" max="10" width="7.33203125" style="7" customWidth="1"/>
-    <col min="11" max="11" width="7.33203125" style="12" customWidth="1"/>
-    <col min="12" max="12" width="7.33203125" style="8" customWidth="1"/>
-    <col min="13" max="13" width="7.33203125" style="7" customWidth="1"/>
-    <col min="14" max="14" width="7.33203125" style="12" customWidth="1"/>
-    <col min="15" max="15" width="7.33203125" style="8" customWidth="1"/>
-    <col min="16" max="16" width="7.33203125" style="7" customWidth="1"/>
-    <col min="17" max="17" width="7.33203125" style="14" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="7.33203125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" style="10" customWidth="1"/>
+    <col min="6" max="6" width="7.33203125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="7.33203125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="7.33203125" style="10" customWidth="1"/>
+    <col min="9" max="9" width="7.33203125" style="6" customWidth="1"/>
+    <col min="10" max="10" width="7.33203125" style="5" customWidth="1"/>
+    <col min="11" max="11" width="7.33203125" style="10" customWidth="1"/>
+    <col min="12" max="12" width="7.33203125" style="6" customWidth="1"/>
+    <col min="13" max="13" width="7.33203125" style="5" customWidth="1"/>
+    <col min="14" max="14" width="7.33203125" style="10" customWidth="1"/>
+    <col min="15" max="15" width="7.33203125" style="6" customWidth="1"/>
+    <col min="16" max="16" width="7.33203125" style="5" customWidth="1"/>
+    <col min="17" max="17" width="7.33203125" style="12" customWidth="1"/>
     <col min="18" max="36" width="7.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A1" s="4"/>
+      <c r="A1" s="14"/>
       <c r="B1" s="3"/>
-      <c r="C1" s="4">
+      <c r="C1" s="14">
         <v>3</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4">
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14">
         <v>5</v>
       </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4">
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14">
         <v>9</v>
       </c>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4">
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14">
         <v>11</v>
       </c>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4">
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14">
         <v>13</v>
       </c>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="4"/>
-      <c r="AA1" s="4"/>
-      <c r="AB1" s="4"/>
-      <c r="AC1" s="4"/>
-      <c r="AD1" s="4"/>
-      <c r="AE1" s="4"/>
-      <c r="AF1" s="4"/>
-      <c r="AG1" s="4"/>
-      <c r="AH1" s="4"/>
-      <c r="AI1" s="4"/>
-      <c r="AJ1" s="4"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
+      <c r="V1" s="14"/>
+      <c r="W1" s="14"/>
+      <c r="X1" s="14"/>
+      <c r="Y1" s="14"/>
+      <c r="Z1" s="14"/>
+      <c r="AA1" s="14"/>
+      <c r="AB1" s="14"/>
+      <c r="AC1" s="14"/>
+      <c r="AD1" s="14"/>
+      <c r="AE1" s="14"/>
+      <c r="AF1" s="14"/>
+      <c r="AG1" s="14"/>
+      <c r="AH1" s="14"/>
+      <c r="AI1" s="14"/>
+      <c r="AJ1" s="14"/>
     </row>
     <row r="2" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4"/>
-      <c r="C2" s="9" t="s">
+      <c r="A2" s="14"/>
+      <c r="C2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="M2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="11" t="s">
+      <c r="N2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="O2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="P2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="Q2" s="13" t="s">
+      <c r="Q2" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A3" s="5">
+      <c r="A3" s="13">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
+      <c r="C3" s="6">
+        <v>15</v>
+      </c>
+      <c r="D3" s="5">
+        <v>5.6609385327164578E-2</v>
+      </c>
+      <c r="E3" s="10">
+        <v>680</v>
+      </c>
+      <c r="F3" s="6">
+        <v>15.833333333333334</v>
+      </c>
+      <c r="G3" s="5">
+        <v>5.8614232209737827E-2</v>
+      </c>
+      <c r="H3" s="10">
+        <v>683</v>
+      </c>
+      <c r="L3" s="6">
+        <v>18</v>
+      </c>
+      <c r="M3" s="5">
+        <v>6.6325181758096499E-2</v>
+      </c>
+      <c r="N3" s="10">
+        <v>684</v>
+      </c>
+      <c r="O3" s="6">
+        <v>18.5</v>
+      </c>
+      <c r="P3" s="5">
+        <v>6.8241903502974224E-2</v>
+      </c>
+      <c r="Q3" s="12">
+        <v>667</v>
+      </c>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A4" s="5"/>
+      <c r="A4" s="13"/>
       <c r="B4" t="s">
         <v>4</v>
       </c>
+      <c r="O4" s="6">
+        <v>18.5</v>
+      </c>
+      <c r="P4" s="5">
+        <v>6.8688037012557823E-2</v>
+      </c>
+      <c r="Q4" s="12">
+        <v>687</v>
+      </c>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A5" s="5"/>
+      <c r="A5" s="13"/>
       <c r="B5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A6" s="5"/>
+      <c r="A6" s="13"/>
       <c r="B6" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="8" t="e">
+      <c r="C6" s="6">
         <f>AVERAGE(C3:C5)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D6" s="7" t="e">
+        <v>15</v>
+      </c>
+      <c r="D6" s="5">
         <f>AVERAGE(D3:D5)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F6" s="8" t="e">
+        <v>5.6609385327164578E-2</v>
+      </c>
+      <c r="F6" s="6">
         <f>AVERAGE(F3:F5)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G6" s="7" t="e">
+        <v>15.833333333333334</v>
+      </c>
+      <c r="G6" s="5">
         <f>AVERAGE(G3:G5)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L6" s="8" t="e">
+        <v>5.8614232209737827E-2</v>
+      </c>
+      <c r="L6" s="6">
         <f>AVERAGE(L3:L5)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M6" s="7" t="e">
+        <v>18</v>
+      </c>
+      <c r="M6" s="5">
         <f>AVERAGE(M3:M5)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O6" s="8" t="e">
+        <v>6.6325181758096499E-2</v>
+      </c>
+      <c r="O6" s="6">
         <f>AVERAGE(O3:O5)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P6" s="7" t="e">
+        <v>18.5</v>
+      </c>
+      <c r="P6" s="5">
         <f>AVERAGE(P3:P5)</f>
-        <v>#DIV/0!</v>
+        <v>6.8464970257766017E-2</v>
       </c>
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A7" s="5">
+      <c r="A7" s="13">
         <v>4</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
       </c>
+      <c r="C7" s="6">
+        <v>18.833333333333332</v>
+      </c>
+      <c r="D7" s="5">
+        <v>9.8894315560982216E-2</v>
+      </c>
+      <c r="E7" s="10">
+        <v>681</v>
+      </c>
+      <c r="F7" s="6">
+        <v>18.333333333333332</v>
+      </c>
+      <c r="G7" s="5">
+        <v>9.7042463709130375E-2</v>
+      </c>
+      <c r="H7" s="10">
+        <v>682</v>
+      </c>
+      <c r="L7" s="6">
+        <v>16.833333333333332</v>
+      </c>
+      <c r="M7" s="5">
+        <v>9.1486908153574811E-2</v>
+      </c>
+      <c r="N7" s="10">
+        <v>685</v>
+      </c>
+      <c r="O7" s="6">
+        <v>16.833333333333332</v>
+      </c>
+      <c r="P7" s="5">
+        <v>9.1486908153574811E-2</v>
+      </c>
+      <c r="Q7" s="12">
+        <v>666</v>
+      </c>
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A8" s="5"/>
+      <c r="A8" s="13"/>
       <c r="B8" t="s">
         <v>4</v>
       </c>
+      <c r="O8" s="6">
+        <v>16.5</v>
+      </c>
+      <c r="P8" s="5">
+        <v>9.0252340252340246E-2</v>
+      </c>
+      <c r="Q8" s="12">
+        <v>686</v>
+      </c>
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A9" s="5"/>
+      <c r="A9" s="13"/>
       <c r="B9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A10" s="5"/>
+      <c r="A10" s="13"/>
       <c r="B10" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="8" t="e">
+      <c r="C10" s="6">
         <f>AVERAGE(C7:C9)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D10" s="7" t="e">
+        <v>18.833333333333332</v>
+      </c>
+      <c r="D10" s="5">
         <f>AVERAGE(D7:D9)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F10" s="8" t="e">
+        <v>9.8894315560982216E-2</v>
+      </c>
+      <c r="F10" s="6">
         <f>AVERAGE(F7:F9)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G10" s="7" t="e">
+        <v>18.333333333333332</v>
+      </c>
+      <c r="G10" s="5">
         <f>AVERAGE(G7:G9)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L10" s="8" t="e">
+        <v>9.7042463709130375E-2</v>
+      </c>
+      <c r="L10" s="6">
         <f>AVERAGE(L7:L9)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M10" s="7" t="e">
+        <v>16.833333333333332</v>
+      </c>
+      <c r="M10" s="5">
         <f>AVERAGE(M7:M9)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O10" s="8" t="e">
+        <v>9.1486908153574811E-2</v>
+      </c>
+      <c r="O10" s="6">
         <f>AVERAGE(O7:O9)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P10" s="7" t="e">
+        <v>16.666666666666664</v>
+      </c>
+      <c r="P10" s="5">
         <f>AVERAGE(P7:P9)</f>
-        <v>#DIV/0!</v>
+        <v>9.0869624202957522E-2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="O1:Q1"/>
     <mergeCell ref="AE1:AF1"/>
     <mergeCell ref="AG1:AH1"/>
     <mergeCell ref="AI1:AJ1"/>
@@ -2358,7 +2452,6 @@
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="L1:N1"/>
-    <mergeCell ref="O1:Q1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2369,219 +2462,346 @@
   <dimension ref="A1:AJ10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R18" sqref="R18"/>
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="7.33203125" style="8" customWidth="1"/>
-    <col min="4" max="4" width="7.33203125" style="7" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" style="12" customWidth="1"/>
-    <col min="6" max="6" width="7.33203125" style="8" customWidth="1"/>
-    <col min="7" max="7" width="7.33203125" style="7" customWidth="1"/>
-    <col min="8" max="8" width="7.33203125" style="12" customWidth="1"/>
-    <col min="9" max="9" width="7.33203125" style="8" customWidth="1"/>
-    <col min="10" max="10" width="7.33203125" style="7" customWidth="1"/>
-    <col min="11" max="11" width="7.33203125" style="12" customWidth="1"/>
-    <col min="12" max="12" width="7.33203125" style="8" customWidth="1"/>
-    <col min="13" max="13" width="7.33203125" style="7" customWidth="1"/>
-    <col min="14" max="14" width="7.33203125" style="12" customWidth="1"/>
-    <col min="15" max="15" width="7.33203125" style="8" customWidth="1"/>
-    <col min="16" max="16" width="7.33203125" style="7" customWidth="1"/>
-    <col min="17" max="17" width="7.33203125" style="14" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="7.33203125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" style="10" customWidth="1"/>
+    <col min="6" max="6" width="7.33203125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="7.33203125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="7.33203125" style="10" customWidth="1"/>
+    <col min="9" max="9" width="7.33203125" style="6" customWidth="1"/>
+    <col min="10" max="10" width="7.33203125" style="5" customWidth="1"/>
+    <col min="11" max="11" width="7.33203125" style="10" customWidth="1"/>
+    <col min="12" max="12" width="7.33203125" style="6" customWidth="1"/>
+    <col min="13" max="13" width="7.33203125" style="5" customWidth="1"/>
+    <col min="14" max="14" width="7.33203125" style="10" customWidth="1"/>
+    <col min="15" max="15" width="7.33203125" style="6" customWidth="1"/>
+    <col min="16" max="16" width="7.33203125" style="5" customWidth="1"/>
+    <col min="17" max="17" width="7.33203125" style="12" customWidth="1"/>
     <col min="18" max="36" width="7.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A1" s="4"/>
+      <c r="A1" s="14"/>
       <c r="B1" s="3"/>
-      <c r="C1" s="4">
+      <c r="C1" s="14">
         <v>5</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4">
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14">
         <v>10</v>
       </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4">
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14">
         <v>20</v>
       </c>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4">
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14">
         <v>40</v>
       </c>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="4"/>
-      <c r="AA1" s="4"/>
-      <c r="AB1" s="4"/>
-      <c r="AC1" s="4"/>
-      <c r="AD1" s="4"/>
-      <c r="AE1" s="4"/>
-      <c r="AF1" s="4"/>
-      <c r="AG1" s="4"/>
-      <c r="AH1" s="4"/>
-      <c r="AI1" s="4"/>
-      <c r="AJ1" s="4"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
+      <c r="V1" s="14"/>
+      <c r="W1" s="14"/>
+      <c r="X1" s="14"/>
+      <c r="Y1" s="14"/>
+      <c r="Z1" s="14"/>
+      <c r="AA1" s="14"/>
+      <c r="AB1" s="14"/>
+      <c r="AC1" s="14"/>
+      <c r="AD1" s="14"/>
+      <c r="AE1" s="14"/>
+      <c r="AF1" s="14"/>
+      <c r="AG1" s="14"/>
+      <c r="AH1" s="14"/>
+      <c r="AI1" s="14"/>
+      <c r="AJ1" s="14"/>
     </row>
     <row r="2" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4"/>
-      <c r="C2" s="9" t="s">
+      <c r="A2" s="14"/>
+      <c r="C2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="M2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="11" t="s">
+      <c r="N2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="9"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="13"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="11"/>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A3" s="5">
+      <c r="A3" s="13">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
+      <c r="C3" s="6">
+        <v>17.666666666666668</v>
+      </c>
+      <c r="D3" s="5">
+        <v>6.5344789601233744E-2</v>
+      </c>
+      <c r="E3" s="10">
+        <v>668</v>
+      </c>
+      <c r="I3" s="6">
+        <v>17.666666666666668</v>
+      </c>
+      <c r="J3" s="5">
+        <v>6.5344789601233758E-2</v>
+      </c>
+      <c r="K3" s="10">
+        <v>671</v>
+      </c>
+      <c r="L3" s="6">
+        <v>17.833333333333332</v>
+      </c>
+      <c r="M3" s="5">
+        <v>6.5388852170081516E-2</v>
+      </c>
+      <c r="N3" s="10">
+        <v>672</v>
+      </c>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A4" s="5"/>
+      <c r="A4" s="13"/>
       <c r="B4" t="s">
         <v>4</v>
       </c>
+      <c r="C4" s="6">
+        <v>17.166666666666668</v>
+      </c>
+      <c r="D4" s="5">
+        <v>6.3428067856356032E-2</v>
+      </c>
+      <c r="E4" s="10">
+        <v>674</v>
+      </c>
+      <c r="I4" s="6">
+        <v>17.666666666666668</v>
+      </c>
+      <c r="J4" s="5">
+        <v>6.5344789601233758E-2</v>
+      </c>
+      <c r="K4" s="10">
+        <v>676</v>
+      </c>
+      <c r="L4" s="6">
+        <v>17.666666666666668</v>
+      </c>
+      <c r="M4" s="5">
+        <v>6.5344789601233758E-2</v>
+      </c>
+      <c r="N4" s="10">
+        <v>678</v>
+      </c>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A5" s="5"/>
+      <c r="A5" s="13"/>
       <c r="B5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A6" s="5"/>
+      <c r="A6" s="13"/>
       <c r="B6" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="8" t="e">
+      <c r="C6" s="6">
         <f>AVERAGE(C3:C5)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D6" s="7" t="e">
+        <v>17.416666666666668</v>
+      </c>
+      <c r="D6" s="5">
         <f>AVERAGE(D3:D5)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F6" s="8" t="e">
+        <v>6.4386428728794881E-2</v>
+      </c>
+      <c r="F6" s="6" t="e">
         <f>AVERAGE(F3:F5)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G6" s="7" t="e">
+      <c r="G6" s="5" t="e">
         <f>AVERAGE(G3:G5)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L6" s="8" t="e">
+      <c r="I6" s="6">
+        <f t="shared" ref="I6:K6" si="0">AVERAGE(I3:I5)</f>
+        <v>17.666666666666668</v>
+      </c>
+      <c r="J6" s="5">
+        <f t="shared" si="0"/>
+        <v>6.5344789601233758E-2</v>
+      </c>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6">
         <f>AVERAGE(L3:L5)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M6" s="7" t="e">
+        <v>17.75</v>
+      </c>
+      <c r="M6" s="5">
         <f>AVERAGE(M3:M5)</f>
-        <v>#DIV/0!</v>
+        <v>6.5366820885657637E-2</v>
       </c>
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A7" s="5">
+      <c r="A7" s="13">
         <v>4</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
       </c>
+      <c r="C7" s="6">
+        <v>16.833333333333332</v>
+      </c>
+      <c r="D7" s="5">
+        <v>9.1486908153574811E-2</v>
+      </c>
+      <c r="E7" s="10">
+        <v>669</v>
+      </c>
+      <c r="I7" s="6">
+        <v>17.166666666666668</v>
+      </c>
+      <c r="J7" s="5">
+        <v>9.272147605480939E-2</v>
+      </c>
+      <c r="K7" s="10">
+        <v>670</v>
+      </c>
+      <c r="L7" s="6">
+        <v>17.166666666666668</v>
+      </c>
+      <c r="M7" s="5">
+        <v>9.272147605480939E-2</v>
+      </c>
+      <c r="N7" s="10">
+        <v>673</v>
+      </c>
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A8" s="5"/>
+      <c r="A8" s="13"/>
       <c r="B8" t="s">
         <v>4</v>
       </c>
+      <c r="C8" s="6">
+        <v>16.833333333333332</v>
+      </c>
+      <c r="D8" s="5">
+        <v>9.1486908153574811E-2</v>
+      </c>
+      <c r="E8" s="10">
+        <v>675</v>
+      </c>
+      <c r="I8" s="6">
+        <v>17.333333333333332</v>
+      </c>
+      <c r="J8" s="5">
+        <v>9.3338760005426666E-2</v>
+      </c>
+      <c r="K8" s="10">
+        <v>677</v>
+      </c>
+      <c r="L8" s="6">
+        <v>17</v>
+      </c>
+      <c r="M8" s="5">
+        <v>9.2104192104192115E-2</v>
+      </c>
+      <c r="N8" s="10">
+        <v>679</v>
+      </c>
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A9" s="5"/>
+      <c r="A9" s="13"/>
       <c r="B9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A10" s="5"/>
+      <c r="A10" s="13"/>
       <c r="B10" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="8" t="e">
+      <c r="C10" s="6">
         <f>AVERAGE(C7:C9)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D10" s="7" t="e">
+        <v>16.833333333333332</v>
+      </c>
+      <c r="D10" s="5">
         <f>AVERAGE(D7:D9)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F10" s="8" t="e">
+        <v>9.1486908153574811E-2</v>
+      </c>
+      <c r="F10" s="6" t="e">
         <f>AVERAGE(F7:F9)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G10" s="7" t="e">
+      <c r="G10" s="5" t="e">
         <f>AVERAGE(G7:G9)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L10" s="8" t="e">
+      <c r="I10" s="6">
+        <f t="shared" ref="I10:K10" si="1">AVERAGE(I7:I9)</f>
+        <v>17.25</v>
+      </c>
+      <c r="J10" s="5">
+        <f t="shared" si="1"/>
+        <v>9.3030118030118028E-2</v>
+      </c>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6">
         <f>AVERAGE(L7:L9)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M10" s="7" t="e">
+        <v>17.083333333333336</v>
+      </c>
+      <c r="M10" s="5">
         <f>AVERAGE(M7:M9)</f>
-        <v>#DIV/0!</v>
+        <v>9.2412834079500752E-2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="O1:Q1"/>
     <mergeCell ref="AE1:AF1"/>
     <mergeCell ref="AG1:AH1"/>
     <mergeCell ref="AI1:AJ1"/>
@@ -2598,7 +2818,6 @@
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="L1:N1"/>
-    <mergeCell ref="O1:Q1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2609,127 +2828,127 @@
   <dimension ref="A1:AJ10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T13" sqref="T13"/>
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="7.33203125" style="8" customWidth="1"/>
-    <col min="4" max="4" width="7.33203125" style="7" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" style="12" customWidth="1"/>
-    <col min="6" max="6" width="7.33203125" style="8" customWidth="1"/>
-    <col min="7" max="7" width="7.33203125" style="7" customWidth="1"/>
-    <col min="8" max="8" width="7.33203125" style="12" customWidth="1"/>
-    <col min="9" max="9" width="7.33203125" style="8" customWidth="1"/>
-    <col min="10" max="10" width="7.33203125" style="7" customWidth="1"/>
-    <col min="11" max="11" width="7.33203125" style="12" customWidth="1"/>
-    <col min="12" max="12" width="7.33203125" style="8" customWidth="1"/>
-    <col min="13" max="13" width="7.33203125" style="7" customWidth="1"/>
-    <col min="14" max="14" width="7.33203125" style="12" customWidth="1"/>
-    <col min="15" max="15" width="7.33203125" style="8" customWidth="1"/>
-    <col min="16" max="16" width="7.33203125" style="7" customWidth="1"/>
-    <col min="17" max="17" width="7.33203125" style="14" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="7.33203125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" style="10" customWidth="1"/>
+    <col min="6" max="6" width="7.33203125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="7.33203125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="7.33203125" style="10" customWidth="1"/>
+    <col min="9" max="9" width="7.33203125" style="6" customWidth="1"/>
+    <col min="10" max="10" width="7.33203125" style="5" customWidth="1"/>
+    <col min="11" max="11" width="7.33203125" style="10" customWidth="1"/>
+    <col min="12" max="12" width="7.33203125" style="6" customWidth="1"/>
+    <col min="13" max="13" width="7.33203125" style="5" customWidth="1"/>
+    <col min="14" max="14" width="7.33203125" style="10" customWidth="1"/>
+    <col min="15" max="15" width="7.33203125" style="6" customWidth="1"/>
+    <col min="16" max="16" width="7.33203125" style="5" customWidth="1"/>
+    <col min="17" max="17" width="7.33203125" style="12" customWidth="1"/>
     <col min="18" max="36" width="7.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A1" s="4"/>
+      <c r="A1" s="14"/>
       <c r="B1" s="3"/>
-      <c r="C1" s="4">
+      <c r="C1" s="14">
         <v>555</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4">
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14">
         <v>999</v>
       </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4" t="s">
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4" t="s">
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4" t="s">
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="4"/>
-      <c r="AA1" s="4"/>
-      <c r="AB1" s="4"/>
-      <c r="AC1" s="4"/>
-      <c r="AD1" s="4"/>
-      <c r="AE1" s="4"/>
-      <c r="AF1" s="4"/>
-      <c r="AG1" s="4"/>
-      <c r="AH1" s="4"/>
-      <c r="AI1" s="4"/>
-      <c r="AJ1" s="4"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
+      <c r="V1" s="14"/>
+      <c r="W1" s="14"/>
+      <c r="X1" s="14"/>
+      <c r="Y1" s="14"/>
+      <c r="Z1" s="14"/>
+      <c r="AA1" s="14"/>
+      <c r="AB1" s="14"/>
+      <c r="AC1" s="14"/>
+      <c r="AD1" s="14"/>
+      <c r="AE1" s="14"/>
+      <c r="AF1" s="14"/>
+      <c r="AG1" s="14"/>
+      <c r="AH1" s="14"/>
+      <c r="AI1" s="14"/>
+      <c r="AJ1" s="14"/>
     </row>
     <row r="2" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4"/>
-      <c r="C2" s="9" t="s">
+      <c r="A2" s="14"/>
+      <c r="C2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="M2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="11" t="s">
+      <c r="N2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="O2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="P2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="Q2" s="13" t="s">
+      <c r="Q2" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A3" s="5">
+      <c r="A3" s="13">
         <v>2</v>
       </c>
       <c r="B3" t="s">
@@ -2737,115 +2956,125 @@
       </c>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A4" s="5"/>
+      <c r="A4" s="13"/>
       <c r="B4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A5" s="5"/>
+      <c r="A5" s="13"/>
       <c r="B5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A6" s="5"/>
+      <c r="A6" s="13"/>
       <c r="B6" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="8" t="e">
+      <c r="C6" s="6" t="e">
         <f>AVERAGE(C3:C5)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D6" s="7" t="e">
+      <c r="D6" s="5" t="e">
         <f>AVERAGE(D3:D5)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F6" s="8" t="e">
+      <c r="F6" s="6" t="e">
         <f>AVERAGE(F3:F5)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G6" s="7" t="e">
+      <c r="G6" s="5" t="e">
         <f>AVERAGE(G3:G5)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L6" s="8" t="e">
+      <c r="L6" s="6" t="e">
         <f>AVERAGE(L3:L5)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M6" s="7" t="e">
+      <c r="M6" s="5" t="e">
         <f>AVERAGE(M3:M5)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O6" s="8" t="e">
+      <c r="O6" s="6" t="e">
         <f>AVERAGE(O3:O5)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P6" s="7" t="e">
+      <c r="P6" s="5" t="e">
         <f>AVERAGE(P3:P5)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A7" s="5">
+      <c r="A7" s="13">
         <v>4</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
       </c>
+      <c r="C7" s="6">
+        <v>16.666666666666668</v>
+      </c>
+      <c r="D7" s="5">
+        <v>9.0869624202957536E-2</v>
+      </c>
+      <c r="E7" s="10">
+        <v>697</v>
+      </c>
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A8" s="5"/>
+      <c r="A8" s="13"/>
       <c r="B8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A9" s="5"/>
+      <c r="A9" s="13"/>
       <c r="B9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A10" s="5"/>
+      <c r="A10" s="13"/>
       <c r="B10" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="8" t="e">
+      <c r="C10" s="6">
         <f>AVERAGE(C7:C9)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D10" s="7" t="e">
+        <v>16.666666666666668</v>
+      </c>
+      <c r="D10" s="5">
         <f>AVERAGE(D7:D9)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F10" s="8" t="e">
+        <v>9.0869624202957536E-2</v>
+      </c>
+      <c r="F10" s="6" t="e">
         <f>AVERAGE(F7:F9)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G10" s="7" t="e">
+      <c r="G10" s="5" t="e">
         <f>AVERAGE(G7:G9)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L10" s="8" t="e">
+      <c r="L10" s="6" t="e">
         <f>AVERAGE(L7:L9)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M10" s="7" t="e">
+      <c r="M10" s="5" t="e">
         <f>AVERAGE(M7:M9)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O10" s="8" t="e">
+      <c r="O10" s="6" t="e">
         <f>AVERAGE(O7:O9)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P10" s="7" t="e">
+      <c r="P10" s="5" t="e">
         <f>AVERAGE(P7:P9)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="O1:Q1"/>
     <mergeCell ref="AE1:AF1"/>
     <mergeCell ref="AG1:AH1"/>
     <mergeCell ref="AI1:AJ1"/>
@@ -2862,7 +3091,6 @@
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="L1:N1"/>
-    <mergeCell ref="O1:Q1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/results.xlsx
+++ b/results.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26230"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/TQin/Desktop/Sherwood-ckguo/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/courtneyguo/Desktop/superurop/Sherwood/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6160" yWindow="2640" windowWidth="25500" windowHeight="13780" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="360" yWindow="460" windowWidth="24960" windowHeight="14400" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,12 +17,10 @@
     <sheet name="D" sheetId="4" r:id="rId3"/>
     <sheet name="K" sheetId="5" r:id="rId4"/>
     <sheet name="S" sheetId="6" r:id="rId5"/>
+    <sheet name="default" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -31,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="11">
   <si>
     <t>Average Error (voxels)</t>
   </si>
@@ -129,7 +127,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -154,11 +152,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -174,6 +176,3279 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Patient 2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>T!$A$13:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>T!$B$13:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.0647664683851068</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0638742013659396</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0643937724902695</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0639182639347874</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0639182639347874</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Patient 4</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>T!$A$13:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>T!$C$13:$C$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.0945733279066612</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0939560439560439</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0927214760548094</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0927214760548094</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0924128340795007</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2129990656"/>
+        <c:axId val="-2125175552"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-2129990656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Trees</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2125175552"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2125175552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Percentage Error</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2129990656"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Patient 2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>D!$A$12:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>D!$B$12:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.0580799735624587</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0583250716016744</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0643937724902695</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0663251817580965</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.068464970257766</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Patient 4</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>D!$A$12:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>D!$C$12:$C$16</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.0995115995115995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0982770316103649</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0927214760548094</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0914869081535748</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0908696242029575</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2129481904"/>
+        <c:axId val="-2129246640"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-2129481904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Maximum Tree Depth</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2129246640"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2129246640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Percentage Error</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2129481904"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Patient 2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>K!$A$12:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>K!$B$12:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.0643864287287949</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0643937724902695</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0653447896012337</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0653668208856576</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Patient 4</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>K!$A$12:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>K!$C$12:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.0914869081535748</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0927214760548094</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.093030118030118</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0924128340795007</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2111127504"/>
+        <c:axId val="-2132406880"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-2111127504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Candidate Features</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2132406880"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2132406880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Percentage Error</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2111127504"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>107950</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>196850</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>298450</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -442,7 +3717,7 @@
   <dimension ref="A2:AJ24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1733,10 +5008,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ10"/>
+  <dimension ref="A1:AJ17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1856,7 +5131,7 @@
       </c>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A3" s="13">
+      <c r="A3" s="15">
         <v>2</v>
       </c>
       <c r="B3" t="s">
@@ -1880,6 +5155,15 @@
       <c r="H3" s="10">
         <v>643</v>
       </c>
+      <c r="I3" s="6">
+        <v>17.166666666666668</v>
+      </c>
+      <c r="J3" s="5">
+        <v>6.3874201365939631E-2</v>
+      </c>
+      <c r="K3" s="10">
+        <v>622</v>
+      </c>
       <c r="L3" s="6">
         <v>17.333333333333332</v>
       </c>
@@ -1900,10 +5184,19 @@
       </c>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A4" s="13"/>
+      <c r="A4" s="15"/>
       <c r="B4" t="s">
         <v>4</v>
       </c>
+      <c r="I4" s="6">
+        <v>17.166666666666668</v>
+      </c>
+      <c r="J4" s="5">
+        <v>6.298193434677242E-2</v>
+      </c>
+      <c r="K4" s="10">
+        <v>651</v>
+      </c>
       <c r="L4" s="6">
         <v>17.333333333333332</v>
       </c>
@@ -1924,13 +5217,22 @@
       </c>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A5" s="13"/>
+      <c r="A5" s="15"/>
       <c r="B5" t="s">
         <v>5</v>
       </c>
+      <c r="I5" s="6">
+        <v>18</v>
+      </c>
+      <c r="J5" s="5">
+        <v>6.6325181758096499E-2</v>
+      </c>
+      <c r="K5" s="10">
+        <v>689</v>
+      </c>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A6" s="13"/>
+      <c r="A6" s="15"/>
       <c r="B6" t="s">
         <v>8</v>
       </c>
@@ -1950,6 +5252,15 @@
         <f>AVERAGE(G3:G5)</f>
         <v>6.3874201365939631E-2</v>
       </c>
+      <c r="I6" s="6">
+        <f t="shared" ref="I6:K6" si="0">AVERAGE(I3:I5)</f>
+        <v>17.444444444444446</v>
+      </c>
+      <c r="J6" s="5">
+        <f t="shared" si="0"/>
+        <v>6.4393772490269507E-2</v>
+      </c>
+      <c r="K6" s="6"/>
       <c r="L6" s="6">
         <f>AVERAGE(L3:L5)</f>
         <v>17.333333333333332</v>
@@ -1968,7 +5279,7 @@
       </c>
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A7" s="13">
+      <c r="A7" s="15">
         <v>4</v>
       </c>
       <c r="B7" t="s">
@@ -1992,6 +5303,15 @@
       <c r="H7" s="10">
         <v>647</v>
       </c>
+      <c r="I7" s="6">
+        <v>17.666666666666668</v>
+      </c>
+      <c r="J7" s="5">
+        <v>9.4573327906661231E-2</v>
+      </c>
+      <c r="K7" s="10">
+        <v>623</v>
+      </c>
       <c r="L7" s="6">
         <v>17.333333333333332</v>
       </c>
@@ -2012,10 +5332,19 @@
       </c>
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A8" s="13"/>
+      <c r="A8" s="15"/>
       <c r="B8" t="s">
         <v>4</v>
       </c>
+      <c r="I8" s="6">
+        <v>17</v>
+      </c>
+      <c r="J8" s="5">
+        <v>9.2104192104192115E-2</v>
+      </c>
+      <c r="K8" s="10">
+        <v>628</v>
+      </c>
       <c r="L8" s="6">
         <v>17</v>
       </c>
@@ -2036,13 +5365,22 @@
       </c>
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A9" s="13"/>
+      <c r="A9" s="15"/>
       <c r="B9" t="s">
         <v>5</v>
       </c>
+      <c r="I9" s="6">
+        <v>16.833333333333332</v>
+      </c>
+      <c r="J9" s="5">
+        <v>9.1486908153574811E-2</v>
+      </c>
+      <c r="K9" s="10">
+        <v>691</v>
+      </c>
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A10" s="13"/>
+      <c r="A10" s="15"/>
       <c r="B10" t="s">
         <v>8</v>
       </c>
@@ -2062,6 +5400,15 @@
         <f>AVERAGE(G7:G9)</f>
         <v>9.3956043956043955E-2</v>
       </c>
+      <c r="I10" s="6">
+        <f t="shared" ref="I10:K10" si="1">AVERAGE(I7:I9)</f>
+        <v>17.166666666666668</v>
+      </c>
+      <c r="J10" s="5">
+        <f t="shared" si="1"/>
+        <v>9.272147605480939E-2</v>
+      </c>
+      <c r="K10" s="6"/>
       <c r="L10" s="6">
         <f>AVERAGE(L7:L9)</f>
         <v>17.166666666666664</v>
@@ -2079,16 +5426,73 @@
         <v>9.2412834079500739E-2</v>
       </c>
     </row>
+    <row r="13" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13" s="5">
+        <f>D6</f>
+        <v>6.4766468385106843E-2</v>
+      </c>
+      <c r="C13" s="5">
+        <f>D10</f>
+        <v>9.4573327906661203E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="B14" s="5">
+        <f>G6</f>
+        <v>6.3874201365939631E-2</v>
+      </c>
+      <c r="C14" s="5">
+        <f>G10</f>
+        <v>9.3956043956043955E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>10</v>
+      </c>
+      <c r="B15" s="5">
+        <f>J6</f>
+        <v>6.4393772490269507E-2</v>
+      </c>
+      <c r="C15" s="5">
+        <f>J10</f>
+        <v>9.272147605480939E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>20</v>
+      </c>
+      <c r="B16" s="5">
+        <f>M6</f>
+        <v>6.3918263934787403E-2</v>
+      </c>
+      <c r="C16" s="5">
+        <f>M10</f>
+        <v>9.2721476054809376E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>40</v>
+      </c>
+      <c r="B17" s="5">
+        <f>P6</f>
+        <v>6.3918263934787403E-2</v>
+      </c>
+      <c r="C17" s="5">
+        <f>P10</f>
+        <v>9.2412834079500739E-2</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AC1:AD1"/>
-    <mergeCell ref="AE1:AF1"/>
-    <mergeCell ref="AG1:AH1"/>
-    <mergeCell ref="AI1:AJ1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:Z1"/>
     <mergeCell ref="A3:A6"/>
     <mergeCell ref="A7:A10"/>
     <mergeCell ref="C1:E1"/>
@@ -2098,17 +5502,26 @@
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="L1:N1"/>
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="AE1:AF1"/>
+    <mergeCell ref="AG1:AH1"/>
+    <mergeCell ref="AI1:AJ1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:Z1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ10"/>
+  <dimension ref="A1:AJ16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T15" sqref="T15"/>
+      <selection activeCell="S20" sqref="S20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2228,7 +5641,7 @@
       </c>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A3" s="13">
+      <c r="A3" s="15">
         <v>2</v>
       </c>
       <c r="B3" t="s">
@@ -2252,6 +5665,15 @@
       <c r="H3" s="10">
         <v>683</v>
       </c>
+      <c r="I3" s="6">
+        <v>17.166666666666668</v>
+      </c>
+      <c r="J3" s="5">
+        <v>6.3874201365939631E-2</v>
+      </c>
+      <c r="K3" s="10">
+        <v>622</v>
+      </c>
       <c r="L3" s="6">
         <v>18</v>
       </c>
@@ -2272,10 +5694,46 @@
       </c>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A4" s="13"/>
+      <c r="A4" s="15"/>
       <c r="B4" t="s">
         <v>4</v>
       </c>
+      <c r="C4" s="6">
+        <v>16</v>
+      </c>
+      <c r="D4" s="5">
+        <v>5.955056179775281E-2</v>
+      </c>
+      <c r="E4" s="10">
+        <v>660</v>
+      </c>
+      <c r="F4" s="6">
+        <v>15.333333333333334</v>
+      </c>
+      <c r="G4" s="5">
+        <v>5.8035910993610933E-2</v>
+      </c>
+      <c r="H4" s="10">
+        <v>663</v>
+      </c>
+      <c r="I4" s="6">
+        <v>17.166666666666668</v>
+      </c>
+      <c r="J4" s="5">
+        <v>6.298193434677242E-2</v>
+      </c>
+      <c r="K4" s="10">
+        <v>651</v>
+      </c>
+      <c r="L4" s="6">
+        <v>18</v>
+      </c>
+      <c r="M4" s="5">
+        <v>6.6325181758096499E-2</v>
+      </c>
+      <c r="N4" s="10">
+        <v>664</v>
+      </c>
       <c r="O4" s="6">
         <v>18.5</v>
       </c>
@@ -2287,31 +5745,46 @@
       </c>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A5" s="13"/>
+      <c r="A5" s="15"/>
       <c r="B5" t="s">
         <v>5</v>
       </c>
+      <c r="I5" s="6">
+        <v>18</v>
+      </c>
+      <c r="J5" s="5">
+        <v>6.6325181758096499E-2</v>
+      </c>
+      <c r="K5" s="10">
+        <v>689</v>
+      </c>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A6" s="13"/>
+      <c r="A6" s="15"/>
       <c r="B6" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="6">
         <f>AVERAGE(C3:C5)</f>
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="D6" s="5">
         <f>AVERAGE(D3:D5)</f>
-        <v>5.6609385327164578E-2</v>
+        <v>5.8079973562458698E-2</v>
       </c>
       <c r="F6" s="6">
         <f>AVERAGE(F3:F5)</f>
-        <v>15.833333333333334</v>
+        <v>15.583333333333334</v>
       </c>
       <c r="G6" s="5">
         <f>AVERAGE(G3:G5)</f>
-        <v>5.8614232209737827E-2</v>
+        <v>5.8325071601674383E-2</v>
+      </c>
+      <c r="I6" s="6">
+        <v>17.444444444444446</v>
+      </c>
+      <c r="J6" s="5">
+        <v>6.4393772490269507E-2</v>
       </c>
       <c r="L6" s="6">
         <f>AVERAGE(L3:L5)</f>
@@ -2331,7 +5804,7 @@
       </c>
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A7" s="13">
+      <c r="A7" s="15">
         <v>4</v>
       </c>
       <c r="B7" t="s">
@@ -2355,6 +5828,15 @@
       <c r="H7" s="10">
         <v>682</v>
       </c>
+      <c r="I7" s="6">
+        <v>17.666666666666668</v>
+      </c>
+      <c r="J7" s="5">
+        <v>9.4573327906661231E-2</v>
+      </c>
+      <c r="K7" s="10">
+        <v>623</v>
+      </c>
       <c r="L7" s="6">
         <v>16.833333333333332</v>
       </c>
@@ -2375,10 +5857,46 @@
       </c>
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A8" s="13"/>
+      <c r="A8" s="15"/>
       <c r="B8" t="s">
         <v>4</v>
       </c>
+      <c r="C8" s="6">
+        <v>19.166666666666668</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0.10012888346221678</v>
+      </c>
+      <c r="E8" s="10">
+        <v>661</v>
+      </c>
+      <c r="F8" s="6">
+        <v>19</v>
+      </c>
+      <c r="G8" s="5">
+        <v>9.9511599511599505E-2</v>
+      </c>
+      <c r="H8" s="10">
+        <v>662</v>
+      </c>
+      <c r="I8" s="6">
+        <v>17</v>
+      </c>
+      <c r="J8" s="5">
+        <v>9.2104192104192115E-2</v>
+      </c>
+      <c r="K8" s="10">
+        <v>628</v>
+      </c>
+      <c r="L8" s="6">
+        <v>16.833333333333332</v>
+      </c>
+      <c r="M8" s="5">
+        <v>9.1486908153574811E-2</v>
+      </c>
+      <c r="N8" s="10">
+        <v>665</v>
+      </c>
       <c r="O8" s="6">
         <v>16.5</v>
       </c>
@@ -2390,31 +5908,46 @@
       </c>
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A9" s="13"/>
+      <c r="A9" s="15"/>
       <c r="B9" t="s">
         <v>5</v>
       </c>
+      <c r="I9" s="6">
+        <v>16.833333333333332</v>
+      </c>
+      <c r="J9" s="5">
+        <v>9.1486908153574811E-2</v>
+      </c>
+      <c r="K9" s="10">
+        <v>691</v>
+      </c>
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A10" s="13"/>
+      <c r="A10" s="15"/>
       <c r="B10" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="6">
         <f>AVERAGE(C7:C9)</f>
-        <v>18.833333333333332</v>
+        <v>19</v>
       </c>
       <c r="D10" s="5">
         <f>AVERAGE(D7:D9)</f>
-        <v>9.8894315560982216E-2</v>
+        <v>9.9511599511599491E-2</v>
       </c>
       <c r="F10" s="6">
         <f>AVERAGE(F7:F9)</f>
-        <v>18.333333333333332</v>
+        <v>18.666666666666664</v>
       </c>
       <c r="G10" s="5">
         <f>AVERAGE(G7:G9)</f>
-        <v>9.7042463709130375E-2</v>
+        <v>9.827703161036494E-2</v>
+      </c>
+      <c r="I10" s="6">
+        <v>17.166666666666668</v>
+      </c>
+      <c r="J10" s="5">
+        <v>9.272147605480939E-2</v>
       </c>
       <c r="L10" s="6">
         <f>AVERAGE(L7:L9)</f>
@@ -2433,36 +5966,102 @@
         <v>9.0869624202957522E-2</v>
       </c>
     </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12" s="16">
+        <f>D6</f>
+        <v>5.8079973562458698E-2</v>
+      </c>
+      <c r="C12" s="5">
+        <f>D10</f>
+        <v>9.9511599511599491E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>4</v>
+      </c>
+      <c r="B13" s="16">
+        <f>G6</f>
+        <v>5.8325071601674383E-2</v>
+      </c>
+      <c r="C13" s="5">
+        <f>G10</f>
+        <v>9.827703161036494E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>8</v>
+      </c>
+      <c r="B14" s="16">
+        <f>J6</f>
+        <v>6.4393772490269507E-2</v>
+      </c>
+      <c r="C14" s="5">
+        <f>J10</f>
+        <v>9.272147605480939E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>10</v>
+      </c>
+      <c r="B15" s="16">
+        <f>M6</f>
+        <v>6.6325181758096499E-2</v>
+      </c>
+      <c r="C15" s="5">
+        <f>M10</f>
+        <v>9.1486908153574811E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>12</v>
+      </c>
+      <c r="B16" s="16">
+        <f>P6</f>
+        <v>6.8464970257766017E-2</v>
+      </c>
+      <c r="C16" s="5">
+        <f>P10</f>
+        <v>9.0869624202957522E-2</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:N1"/>
     <mergeCell ref="O1:Q1"/>
     <mergeCell ref="AE1:AF1"/>
     <mergeCell ref="AG1:AH1"/>
     <mergeCell ref="AI1:AJ1"/>
     <mergeCell ref="A3:A6"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:Z1"/>
     <mergeCell ref="AA1:AB1"/>
     <mergeCell ref="AC1:AD1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="L1:N1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ10"/>
+  <dimension ref="A1:AJ15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q25" sqref="Q25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2574,7 +6173,7 @@
       <c r="Q2" s="11"/>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A3" s="13">
+      <c r="A3" s="15">
         <v>2</v>
       </c>
       <c r="B3" t="s">
@@ -2589,6 +6188,15 @@
       <c r="E3" s="10">
         <v>668</v>
       </c>
+      <c r="F3" s="6">
+        <v>17.166666666666668</v>
+      </c>
+      <c r="G3" s="5">
+        <v>6.3874201365939631E-2</v>
+      </c>
+      <c r="H3" s="10">
+        <v>622</v>
+      </c>
       <c r="I3" s="6">
         <v>17.666666666666668</v>
       </c>
@@ -2609,7 +6217,7 @@
       </c>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A4" s="13"/>
+      <c r="A4" s="15"/>
       <c r="B4" t="s">
         <v>4</v>
       </c>
@@ -2622,6 +6230,15 @@
       <c r="E4" s="10">
         <v>674</v>
       </c>
+      <c r="F4" s="6">
+        <v>17.166666666666668</v>
+      </c>
+      <c r="G4" s="5">
+        <v>6.298193434677242E-2</v>
+      </c>
+      <c r="H4" s="10">
+        <v>651</v>
+      </c>
       <c r="I4" s="6">
         <v>17.666666666666668</v>
       </c>
@@ -2642,13 +6259,22 @@
       </c>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A5" s="13"/>
+      <c r="A5" s="15"/>
       <c r="B5" t="s">
         <v>5</v>
       </c>
+      <c r="F5" s="6">
+        <v>18</v>
+      </c>
+      <c r="G5" s="5">
+        <v>6.6325181758096499E-2</v>
+      </c>
+      <c r="H5" s="10">
+        <v>689</v>
+      </c>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A6" s="13"/>
+      <c r="A6" s="15"/>
       <c r="B6" t="s">
         <v>8</v>
       </c>
@@ -2660,16 +6286,14 @@
         <f>AVERAGE(D3:D5)</f>
         <v>6.4386428728794881E-2</v>
       </c>
-      <c r="F6" s="6" t="e">
-        <f>AVERAGE(F3:F5)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G6" s="5" t="e">
-        <f>AVERAGE(G3:G5)</f>
-        <v>#DIV/0!</v>
+      <c r="F6" s="6">
+        <v>17.444444444444446</v>
+      </c>
+      <c r="G6" s="5">
+        <v>6.4393772490269507E-2</v>
       </c>
       <c r="I6" s="6">
-        <f t="shared" ref="I6:K6" si="0">AVERAGE(I3:I5)</f>
+        <f t="shared" ref="I6:J6" si="0">AVERAGE(I3:I5)</f>
         <v>17.666666666666668</v>
       </c>
       <c r="J6" s="5">
@@ -2687,7 +6311,7 @@
       </c>
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A7" s="13">
+      <c r="A7" s="15">
         <v>4</v>
       </c>
       <c r="B7" t="s">
@@ -2702,6 +6326,15 @@
       <c r="E7" s="10">
         <v>669</v>
       </c>
+      <c r="F7" s="6">
+        <v>17.666666666666668</v>
+      </c>
+      <c r="G7" s="5">
+        <v>9.4573327906661231E-2</v>
+      </c>
+      <c r="H7" s="10">
+        <v>623</v>
+      </c>
       <c r="I7" s="6">
         <v>17.166666666666668</v>
       </c>
@@ -2722,7 +6355,7 @@
       </c>
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A8" s="13"/>
+      <c r="A8" s="15"/>
       <c r="B8" t="s">
         <v>4</v>
       </c>
@@ -2735,6 +6368,15 @@
       <c r="E8" s="10">
         <v>675</v>
       </c>
+      <c r="F8" s="6">
+        <v>17</v>
+      </c>
+      <c r="G8" s="5">
+        <v>9.2104192104192115E-2</v>
+      </c>
+      <c r="H8" s="10">
+        <v>628</v>
+      </c>
       <c r="I8" s="6">
         <v>17.333333333333332</v>
       </c>
@@ -2755,13 +6397,22 @@
       </c>
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A9" s="13"/>
+      <c r="A9" s="15"/>
       <c r="B9" t="s">
         <v>5</v>
       </c>
+      <c r="F9" s="6">
+        <v>16.833333333333332</v>
+      </c>
+      <c r="G9" s="5">
+        <v>9.1486908153574811E-2</v>
+      </c>
+      <c r="H9" s="10">
+        <v>691</v>
+      </c>
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A10" s="13"/>
+      <c r="A10" s="15"/>
       <c r="B10" t="s">
         <v>8</v>
       </c>
@@ -2773,16 +6424,14 @@
         <f>AVERAGE(D7:D9)</f>
         <v>9.1486908153574811E-2</v>
       </c>
-      <c r="F10" s="6" t="e">
-        <f>AVERAGE(F7:F9)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G10" s="5" t="e">
-        <f>AVERAGE(G7:G9)</f>
-        <v>#DIV/0!</v>
+      <c r="F10" s="6">
+        <v>17.166666666666668</v>
+      </c>
+      <c r="G10" s="5">
+        <v>9.272147605480939E-2</v>
       </c>
       <c r="I10" s="6">
-        <f t="shared" ref="I10:K10" si="1">AVERAGE(I7:I9)</f>
+        <f t="shared" ref="I10:J10" si="1">AVERAGE(I7:I9)</f>
         <v>17.25</v>
       </c>
       <c r="J10" s="5">
@@ -2799,27 +6448,80 @@
         <v>9.2412834079500752E-2</v>
       </c>
     </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>5</v>
+      </c>
+      <c r="B12" s="16">
+        <f>D6</f>
+        <v>6.4386428728794881E-2</v>
+      </c>
+      <c r="C12" s="5">
+        <f>D10</f>
+        <v>9.1486908153574811E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13" s="16">
+        <f>G6</f>
+        <v>6.4393772490269507E-2</v>
+      </c>
+      <c r="C13" s="5">
+        <f>G10</f>
+        <v>9.272147605480939E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>20</v>
+      </c>
+      <c r="B14" s="16">
+        <f>J6</f>
+        <v>6.5344789601233758E-2</v>
+      </c>
+      <c r="C14" s="5">
+        <f>J10</f>
+        <v>9.3030118030118028E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>40</v>
+      </c>
+      <c r="B15" s="16">
+        <f>M6</f>
+        <v>6.5366820885657637E-2</v>
+      </c>
+      <c r="C15" s="5">
+        <f>M10</f>
+        <v>9.2412834079500752E-2</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:N1"/>
     <mergeCell ref="O1:Q1"/>
     <mergeCell ref="AE1:AF1"/>
     <mergeCell ref="AG1:AH1"/>
     <mergeCell ref="AI1:AJ1"/>
     <mergeCell ref="A3:A6"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:Z1"/>
     <mergeCell ref="AA1:AB1"/>
     <mergeCell ref="AC1:AD1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="L1:N1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2827,8 +6529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2948,27 +6650,54 @@
       </c>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A3" s="13">
+      <c r="A3" s="15">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
+      <c r="F3" s="6">
+        <v>17.166666666666668</v>
+      </c>
+      <c r="G3" s="5">
+        <v>6.3874201365939631E-2</v>
+      </c>
+      <c r="H3" s="10">
+        <v>622</v>
+      </c>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A4" s="13"/>
+      <c r="A4" s="15"/>
       <c r="B4" t="s">
         <v>4</v>
       </c>
+      <c r="F4" s="6">
+        <v>17.166666666666668</v>
+      </c>
+      <c r="G4" s="5">
+        <v>6.298193434677242E-2</v>
+      </c>
+      <c r="H4" s="10">
+        <v>651</v>
+      </c>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A5" s="13"/>
+      <c r="A5" s="15"/>
       <c r="B5" t="s">
         <v>5</v>
       </c>
+      <c r="F5" s="6">
+        <v>18</v>
+      </c>
+      <c r="G5" s="5">
+        <v>6.6325181758096499E-2</v>
+      </c>
+      <c r="H5" s="10">
+        <v>689</v>
+      </c>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A6" s="13"/>
+      <c r="A6" s="15"/>
       <c r="B6" t="s">
         <v>8</v>
       </c>
@@ -2980,13 +6709,11 @@
         <f>AVERAGE(D3:D5)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F6" s="6" t="e">
-        <f>AVERAGE(F3:F5)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G6" s="5" t="e">
-        <f>AVERAGE(G3:G5)</f>
-        <v>#DIV/0!</v>
+      <c r="F6" s="6">
+        <v>17.444444444444446</v>
+      </c>
+      <c r="G6" s="5">
+        <v>6.4393772490269507E-2</v>
       </c>
       <c r="L6" s="6" t="e">
         <f>AVERAGE(L3:L5)</f>
@@ -3006,7 +6733,7 @@
       </c>
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A7" s="13">
+      <c r="A7" s="15">
         <v>4</v>
       </c>
       <c r="B7" t="s">
@@ -3021,21 +6748,48 @@
       <c r="E7" s="10">
         <v>697</v>
       </c>
+      <c r="F7" s="6">
+        <v>17.666666666666668</v>
+      </c>
+      <c r="G7" s="5">
+        <v>9.4573327906661231E-2</v>
+      </c>
+      <c r="H7" s="10">
+        <v>623</v>
+      </c>
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A8" s="13"/>
+      <c r="A8" s="15"/>
       <c r="B8" t="s">
         <v>4</v>
       </c>
+      <c r="F8" s="6">
+        <v>17</v>
+      </c>
+      <c r="G8" s="5">
+        <v>9.2104192104192115E-2</v>
+      </c>
+      <c r="H8" s="10">
+        <v>628</v>
+      </c>
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A9" s="13"/>
+      <c r="A9" s="15"/>
       <c r="B9" t="s">
         <v>5</v>
       </c>
+      <c r="F9" s="6">
+        <v>16.833333333333332</v>
+      </c>
+      <c r="G9" s="5">
+        <v>9.1486908153574811E-2</v>
+      </c>
+      <c r="H9" s="10">
+        <v>691</v>
+      </c>
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A10" s="13"/>
+      <c r="A10" s="15"/>
       <c r="B10" t="s">
         <v>8</v>
       </c>
@@ -3047,13 +6801,11 @@
         <f>AVERAGE(D7:D9)</f>
         <v>9.0869624202957536E-2</v>
       </c>
-      <c r="F10" s="6" t="e">
-        <f>AVERAGE(F7:F9)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G10" s="5" t="e">
-        <f>AVERAGE(G7:G9)</f>
-        <v>#DIV/0!</v>
+      <c r="F10" s="6">
+        <v>17.166666666666668</v>
+      </c>
+      <c r="G10" s="5">
+        <v>9.272147605480939E-2</v>
       </c>
       <c r="L10" s="6" t="e">
         <f>AVERAGE(L7:L9)</f>
@@ -3074,12 +6826,663 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:N1"/>
     <mergeCell ref="O1:Q1"/>
     <mergeCell ref="AE1:AF1"/>
     <mergeCell ref="AG1:AH1"/>
     <mergeCell ref="AI1:AJ1"/>
     <mergeCell ref="A3:A6"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AC1:AD1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AJ42"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="7.33203125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="7.33203125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" style="10" customWidth="1"/>
+    <col min="6" max="6" width="7.33203125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="7.33203125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="7.33203125" style="10" customWidth="1"/>
+    <col min="9" max="9" width="7.33203125" style="6" customWidth="1"/>
+    <col min="10" max="10" width="7.33203125" style="5" customWidth="1"/>
+    <col min="11" max="11" width="7.33203125" style="10" customWidth="1"/>
+    <col min="12" max="12" width="7.33203125" style="6" customWidth="1"/>
+    <col min="13" max="13" width="7.33203125" style="5" customWidth="1"/>
+    <col min="14" max="14" width="7.33203125" style="10" customWidth="1"/>
+    <col min="15" max="15" width="7.33203125" style="6" customWidth="1"/>
+    <col min="16" max="16" width="7.33203125" style="5" customWidth="1"/>
+    <col min="17" max="17" width="7.33203125" style="12" customWidth="1"/>
+    <col min="18" max="36" width="7.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A1" s="14"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="14">
+        <v>1</v>
+      </c>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
+      <c r="V1" s="14"/>
+      <c r="W1" s="14"/>
+      <c r="X1" s="14"/>
+      <c r="Y1" s="14"/>
+      <c r="Z1" s="14"/>
+      <c r="AA1" s="14"/>
+      <c r="AB1" s="14"/>
+      <c r="AC1" s="14"/>
+      <c r="AD1" s="14"/>
+      <c r="AE1" s="14"/>
+      <c r="AF1" s="14"/>
+      <c r="AG1" s="14"/>
+      <c r="AH1" s="14"/>
+      <c r="AI1" s="14"/>
+      <c r="AJ1" s="14"/>
+    </row>
+    <row r="2" spans="1:36" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="14"/>
+      <c r="C2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="7"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="11"/>
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A3" s="15">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="6">
+        <v>6.8</v>
+      </c>
+      <c r="D3" s="5">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A4" s="15"/>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A5" s="15"/>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A6" s="15"/>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="6">
+        <f>AVERAGE(C3:C5)</f>
+        <v>6.8</v>
+      </c>
+      <c r="D6" s="5">
+        <f>AVERAGE(D3:D5)</f>
+        <v>2.3E-2</v>
+      </c>
+      <c r="K6" s="6"/>
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A7" s="15">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="6">
+        <v>7.666666666666667</v>
+      </c>
+      <c r="D7" s="5">
+        <v>3.3212209302325581E-2</v>
+      </c>
+      <c r="E7" s="10">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A8" s="15"/>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="6">
+        <v>8</v>
+      </c>
+      <c r="D8" s="5">
+        <v>3.5025032299741597E-2</v>
+      </c>
+      <c r="E8" s="10">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A9" s="15"/>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A10" s="15"/>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="6">
+        <f>AVERAGE(C7:C9)</f>
+        <v>7.8333333333333339</v>
+      </c>
+      <c r="D10" s="5">
+        <f>AVERAGE(D7:D9)</f>
+        <v>3.4118620801033589E-2</v>
+      </c>
+      <c r="K10" s="6"/>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A11" s="15">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="6">
+        <v>17.166666666666668</v>
+      </c>
+      <c r="D11" s="5">
+        <v>6.3874201365939631E-2</v>
+      </c>
+      <c r="E11" s="10">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A12" s="15"/>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="6">
+        <v>17.166666666666668</v>
+      </c>
+      <c r="D12" s="5">
+        <v>6.298193434677242E-2</v>
+      </c>
+      <c r="E12" s="10">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A13" s="15"/>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="6">
+        <v>18</v>
+      </c>
+      <c r="D13" s="5">
+        <v>6.6325181758096499E-2</v>
+      </c>
+      <c r="E13" s="10">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="14" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A14" s="15"/>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="6">
+        <f t="shared" ref="C14:D14" si="0">AVERAGE(C11:C13)</f>
+        <v>17.444444444444446</v>
+      </c>
+      <c r="D14" s="5">
+        <f t="shared" si="0"/>
+        <v>6.4393772490269507E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A15" s="15">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="6">
+        <v>32.166666666666664</v>
+      </c>
+      <c r="D15" s="5">
+        <v>8.5227272727272721E-2</v>
+      </c>
+      <c r="E15" s="10">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="16" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A16" s="15"/>
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="6">
+        <v>31.5</v>
+      </c>
+      <c r="D16" s="5">
+        <v>8.3712121212121196E-2</v>
+      </c>
+      <c r="E16" s="10">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="15"/>
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="15"/>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="6">
+        <f t="shared" ref="C18:D18" si="1">AVERAGE(C15:C17)</f>
+        <v>31.833333333333332</v>
+      </c>
+      <c r="D18" s="5">
+        <f t="shared" si="1"/>
+        <v>8.4469696969696959E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="15">
+        <v>4</v>
+      </c>
+      <c r="B19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="6">
+        <v>17.666666666666668</v>
+      </c>
+      <c r="D19" s="5">
+        <v>9.4573327906661231E-2</v>
+      </c>
+      <c r="E19" s="10">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="15"/>
+      <c r="B20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="6">
+        <v>17</v>
+      </c>
+      <c r="D20" s="5">
+        <v>9.2104192104192115E-2</v>
+      </c>
+      <c r="E20" s="10">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="15"/>
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="6">
+        <v>16.833333333333332</v>
+      </c>
+      <c r="D21" s="5">
+        <v>9.1486908153574811E-2</v>
+      </c>
+      <c r="E21" s="10">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="15"/>
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="6">
+        <f t="shared" ref="C22:D22" si="2">AVERAGE(C19:C21)</f>
+        <v>17.166666666666668</v>
+      </c>
+      <c r="D22" s="5">
+        <f t="shared" si="2"/>
+        <v>9.272147605480939E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="15">
+        <v>5</v>
+      </c>
+      <c r="B23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="6">
+        <v>11.666666666666666</v>
+      </c>
+      <c r="D23" s="5">
+        <v>5.6125356125356129E-2</v>
+      </c>
+      <c r="E23" s="10">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="15"/>
+      <c r="B24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="6">
+        <v>11.666666666666666</v>
+      </c>
+      <c r="D24" s="5">
+        <v>5.6932573599240262E-2</v>
+      </c>
+      <c r="E24" s="10">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="15"/>
+      <c r="B25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="15"/>
+      <c r="B26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="6">
+        <f t="shared" ref="C26:D26" si="3">AVERAGE(C23:C25)</f>
+        <v>11.666666666666666</v>
+      </c>
+      <c r="D26" s="5">
+        <f t="shared" si="3"/>
+        <v>5.6528964862298192E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="15">
+        <v>6</v>
+      </c>
+      <c r="B27" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="6">
+        <v>9.6666666666666661</v>
+      </c>
+      <c r="D27" s="5">
+        <v>3.3388356488911308E-2</v>
+      </c>
+      <c r="E27" s="10">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="15"/>
+      <c r="B28" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="6">
+        <v>10</v>
+      </c>
+      <c r="D28" s="5">
+        <v>3.4251914347287818E-2</v>
+      </c>
+      <c r="E28" s="10">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="15"/>
+      <c r="B29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="15"/>
+      <c r="B30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="6">
+        <f t="shared" ref="C30" si="4">AVERAGE(C27:C29)</f>
+        <v>9.8333333333333321</v>
+      </c>
+      <c r="D30" s="5">
+        <f t="shared" ref="D30" si="5">AVERAGE(D27:D29)</f>
+        <v>3.3820135418099563E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="15">
+        <v>7</v>
+      </c>
+      <c r="B31" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="6">
+        <v>4.333333333333333</v>
+      </c>
+      <c r="D31" s="5">
+        <v>1.2584916522740358E-2</v>
+      </c>
+      <c r="E31" s="10">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="15"/>
+      <c r="B32" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" s="6">
+        <v>3.8333333333333335</v>
+      </c>
+      <c r="D32" s="5">
+        <v>1.128957973517559E-2</v>
+      </c>
+      <c r="E32" s="10">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="15"/>
+      <c r="B33" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="15"/>
+      <c r="B34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="6">
+        <f t="shared" ref="C34" si="6">AVERAGE(C31:C33)</f>
+        <v>4.083333333333333</v>
+      </c>
+      <c r="D34" s="5">
+        <f t="shared" ref="D34" si="7">AVERAGE(D31:D33)</f>
+        <v>1.1937248128957974E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="15">
+        <v>8</v>
+      </c>
+      <c r="B35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="6">
+        <v>6.666666666666667</v>
+      </c>
+      <c r="D35" s="5">
+        <v>3.3941176470588232E-2</v>
+      </c>
+      <c r="E35" s="10">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="15"/>
+      <c r="B36" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36" s="6">
+        <v>6.5</v>
+      </c>
+      <c r="D36" s="5">
+        <v>3.3450980392156861E-2</v>
+      </c>
+      <c r="E36" s="10">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="15"/>
+      <c r="B37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="15"/>
+      <c r="B38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="6">
+        <f t="shared" ref="C38" si="8">AVERAGE(C35:C37)</f>
+        <v>6.5833333333333339</v>
+      </c>
+      <c r="D38" s="5">
+        <f t="shared" ref="D38" si="9">AVERAGE(D35:D37)</f>
+        <v>3.3696078431372546E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="15">
+        <v>9</v>
+      </c>
+      <c r="B39" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39" s="6">
+        <v>11.666666666666666</v>
+      </c>
+      <c r="D39" s="5">
+        <v>4.8100490196078427E-2</v>
+      </c>
+      <c r="E39" s="10">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="15"/>
+      <c r="B40" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40" s="6">
+        <v>11.666666666666666</v>
+      </c>
+      <c r="D40" s="5">
+        <v>4.7549019607843135E-2</v>
+      </c>
+      <c r="E40" s="10">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="15"/>
+      <c r="B41" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="15"/>
+      <c r="B42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" s="6">
+        <f t="shared" ref="C42" si="10">AVERAGE(C39:C41)</f>
+        <v>11.666666666666666</v>
+      </c>
+      <c r="D42" s="5">
+        <f t="shared" ref="D42" si="11">AVERAGE(D39:D41)</f>
+        <v>4.7824754901960781E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="25">
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="AE1:AF1"/>
+    <mergeCell ref="AG1:AH1"/>
+    <mergeCell ref="AI1:AJ1"/>
+    <mergeCell ref="A3:A6"/>
     <mergeCell ref="A7:A10"/>
+    <mergeCell ref="A11:A14"/>
     <mergeCell ref="S1:T1"/>
     <mergeCell ref="U1:V1"/>
     <mergeCell ref="W1:X1"/>
@@ -3091,6 +7494,7 @@
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="L1:N1"/>
+    <mergeCell ref="O1:Q1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/results.xlsx
+++ b/results.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="460" windowWidth="24960" windowHeight="14400" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="360" yWindow="720" windowWidth="24960" windowHeight="14400" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -259,10 +259,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.0647664683851068</c:v>
+                  <c:v>0.0609109936109275</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0638742013659396</c:v>
+                  <c:v>0.0648545935228024</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.0643937724902695</c:v>
@@ -339,10 +339,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.0945733279066612</c:v>
+                  <c:v>0.0951906118572785</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0939560439560439</c:v>
+                  <c:v>0.0936474019807353</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.0927214760548094</c:v>
@@ -397,16 +397,13 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:latin typeface="Times New Roman" charset="0"/>
+                    <a:ea typeface="Times New Roman" charset="0"/>
+                    <a:cs typeface="Times New Roman" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
@@ -430,16 +427,13 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="tx1"/>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
+                  <a:latin typeface="Times New Roman" charset="0"/>
+                  <a:ea typeface="Times New Roman" charset="0"/>
+                  <a:cs typeface="Times New Roman" charset="0"/>
                 </a:defRPr>
               </a:pPr>
               <a:endParaRPr lang="en-US"/>
@@ -468,16 +462,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:latin typeface="Times New Roman" charset="0"/>
+                <a:ea typeface="Times New Roman" charset="0"/>
+                <a:cs typeface="Times New Roman" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
@@ -515,16 +506,13 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:latin typeface="Times New Roman" charset="0"/>
+                    <a:ea typeface="Times New Roman" charset="0"/>
+                    <a:cs typeface="Times New Roman" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
@@ -548,16 +536,13 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="tx1"/>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
+                  <a:latin typeface="Times New Roman" charset="0"/>
+                  <a:ea typeface="Times New Roman" charset="0"/>
+                  <a:cs typeface="Times New Roman" charset="0"/>
                 </a:defRPr>
               </a:pPr>
               <a:endParaRPr lang="en-US"/>
@@ -586,16 +571,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:latin typeface="Times New Roman" charset="0"/>
+                <a:ea typeface="Times New Roman" charset="0"/>
+                <a:cs typeface="Times New Roman" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
@@ -615,7 +597,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.292233433957484"/>
+          <c:y val="0.869193220964567"/>
+          <c:w val="0.466838617313598"/>
+          <c:h val="0.0826448695866142"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -629,16 +620,13 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:latin typeface="Times New Roman" charset="0"/>
+              <a:ea typeface="Times New Roman" charset="0"/>
+              <a:cs typeface="Times New Roman" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
@@ -654,12 +642,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -669,7 +652,14 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="Times New Roman" charset="0"/>
+          <a:ea typeface="Times New Roman" charset="0"/>
+          <a:cs typeface="Times New Roman" charset="0"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -901,16 +891,13 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:latin typeface="Times New Roman" charset="0"/>
+                    <a:ea typeface="Times New Roman" charset="0"/>
+                    <a:cs typeface="Times New Roman" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
@@ -934,16 +921,13 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="tx1"/>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
+                  <a:latin typeface="Times New Roman" charset="0"/>
+                  <a:ea typeface="Times New Roman" charset="0"/>
+                  <a:cs typeface="Times New Roman" charset="0"/>
                 </a:defRPr>
               </a:pPr>
               <a:endParaRPr lang="en-US"/>
@@ -972,16 +956,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:latin typeface="Times New Roman" charset="0"/>
+                <a:ea typeface="Times New Roman" charset="0"/>
+                <a:cs typeface="Times New Roman" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
@@ -1019,16 +1000,13 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:latin typeface="Times New Roman" charset="0"/>
+                    <a:ea typeface="Times New Roman" charset="0"/>
+                    <a:cs typeface="Times New Roman" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
@@ -1052,16 +1030,13 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="tx1"/>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
+                  <a:latin typeface="Times New Roman" charset="0"/>
+                  <a:ea typeface="Times New Roman" charset="0"/>
+                  <a:cs typeface="Times New Roman" charset="0"/>
                 </a:defRPr>
               </a:pPr>
               <a:endParaRPr lang="en-US"/>
@@ -1090,16 +1065,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:latin typeface="Times New Roman" charset="0"/>
+                <a:ea typeface="Times New Roman" charset="0"/>
+                <a:cs typeface="Times New Roman" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
@@ -1133,16 +1105,13 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:latin typeface="Times New Roman" charset="0"/>
+              <a:ea typeface="Times New Roman" charset="0"/>
+              <a:cs typeface="Times New Roman" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
@@ -1173,7 +1142,14 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="Times New Roman" charset="0"/>
+          <a:ea typeface="Times New Roman" charset="0"/>
+          <a:cs typeface="Times New Roman" charset="0"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -1393,16 +1369,13 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:latin typeface="Times New Roman" charset="0"/>
+                    <a:ea typeface="Times New Roman" charset="0"/>
+                    <a:cs typeface="Times New Roman" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
@@ -1426,16 +1399,13 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="tx1"/>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
+                  <a:latin typeface="Times New Roman" charset="0"/>
+                  <a:ea typeface="Times New Roman" charset="0"/>
+                  <a:cs typeface="Times New Roman" charset="0"/>
                 </a:defRPr>
               </a:pPr>
               <a:endParaRPr lang="en-US"/>
@@ -1464,16 +1434,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:latin typeface="Times New Roman" charset="0"/>
+                <a:ea typeface="Times New Roman" charset="0"/>
+                <a:cs typeface="Times New Roman" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
@@ -1511,16 +1478,13 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:latin typeface="Times New Roman" charset="0"/>
+                    <a:ea typeface="Times New Roman" charset="0"/>
+                    <a:cs typeface="Times New Roman" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
@@ -1544,16 +1508,13 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="tx1"/>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
+                  <a:latin typeface="Times New Roman" charset="0"/>
+                  <a:ea typeface="Times New Roman" charset="0"/>
+                  <a:cs typeface="Times New Roman" charset="0"/>
                 </a:defRPr>
               </a:pPr>
               <a:endParaRPr lang="en-US"/>
@@ -1582,16 +1543,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:latin typeface="Times New Roman" charset="0"/>
+                <a:ea typeface="Times New Roman" charset="0"/>
+                <a:cs typeface="Times New Roman" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
@@ -1625,16 +1583,13 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:latin typeface="Times New Roman" charset="0"/>
+              <a:ea typeface="Times New Roman" charset="0"/>
+              <a:cs typeface="Times New Roman" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
@@ -1665,7 +1620,14 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="Times New Roman" charset="0"/>
+          <a:ea typeface="Times New Roman" charset="0"/>
+          <a:cs typeface="Times New Roman" charset="0"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -3356,10 +3318,10 @@
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5011,7 +4973,7 @@
   <dimension ref="A1:AJ17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5188,6 +5150,24 @@
       <c r="B4" t="s">
         <v>4</v>
       </c>
+      <c r="C4" s="6">
+        <v>15</v>
+      </c>
+      <c r="D4" s="5">
+        <v>5.7055518836748177E-2</v>
+      </c>
+      <c r="E4" s="10">
+        <v>547</v>
+      </c>
+      <c r="F4" s="6">
+        <v>17.833333333333332</v>
+      </c>
+      <c r="G4" s="5">
+        <v>6.5834985679665128E-2</v>
+      </c>
+      <c r="H4" s="10">
+        <v>550</v>
+      </c>
       <c r="I4" s="6">
         <v>17.166666666666668</v>
       </c>
@@ -5238,19 +5218,19 @@
       </c>
       <c r="C6" s="6">
         <f>AVERAGE(C3:C5)</f>
-        <v>17.166666666666668</v>
+        <v>16.083333333333336</v>
       </c>
       <c r="D6" s="5">
         <f>AVERAGE(D3:D5)</f>
-        <v>6.4766468385106843E-2</v>
+        <v>6.0910993610927514E-2</v>
       </c>
       <c r="F6" s="6">
         <f>AVERAGE(F3:F5)</f>
-        <v>17.166666666666668</v>
+        <v>17.5</v>
       </c>
       <c r="G6" s="5">
         <f>AVERAGE(G3:G5)</f>
-        <v>6.3874201365939631E-2</v>
+        <v>6.4854593522802373E-2</v>
       </c>
       <c r="I6" s="6">
         <f t="shared" ref="I6:K6" si="0">AVERAGE(I3:I5)</f>
@@ -5336,6 +5316,24 @@
       <c r="B8" t="s">
         <v>4</v>
       </c>
+      <c r="C8" s="6">
+        <v>18</v>
+      </c>
+      <c r="D8" s="5">
+        <v>9.5807895807895796E-2</v>
+      </c>
+      <c r="E8" s="10">
+        <v>548</v>
+      </c>
+      <c r="F8" s="6">
+        <v>17.333333333333332</v>
+      </c>
+      <c r="G8" s="5">
+        <v>9.3338760005426666E-2</v>
+      </c>
+      <c r="H8" s="10">
+        <v>549</v>
+      </c>
       <c r="I8" s="6">
         <v>17</v>
       </c>
@@ -5386,19 +5384,19 @@
       </c>
       <c r="C10" s="6">
         <f>AVERAGE(C7:C9)</f>
-        <v>17.666666666666668</v>
+        <v>17.833333333333336</v>
       </c>
       <c r="D10" s="5">
         <f>AVERAGE(D7:D9)</f>
-        <v>9.4573327906661203E-2</v>
+        <v>9.5190611857278506E-2</v>
       </c>
       <c r="F10" s="6">
         <f>AVERAGE(F7:F9)</f>
-        <v>17.5</v>
+        <v>17.416666666666664</v>
       </c>
       <c r="G10" s="5">
         <f>AVERAGE(G7:G9)</f>
-        <v>9.3956043956043955E-2</v>
+        <v>9.3647401980735318E-2</v>
       </c>
       <c r="I10" s="6">
         <f t="shared" ref="I10:K10" si="1">AVERAGE(I7:I9)</f>
@@ -5432,11 +5430,11 @@
       </c>
       <c r="B13" s="5">
         <f>D6</f>
-        <v>6.4766468385106843E-2</v>
+        <v>6.0910993610927514E-2</v>
       </c>
       <c r="C13" s="5">
         <f>D10</f>
-        <v>9.4573327906661203E-2</v>
+        <v>9.5190611857278506E-2</v>
       </c>
     </row>
     <row r="14" spans="1:36" x14ac:dyDescent="0.2">
@@ -5445,11 +5443,11 @@
       </c>
       <c r="B14" s="5">
         <f>G6</f>
-        <v>6.3874201365939631E-2</v>
+        <v>6.4854593522802373E-2</v>
       </c>
       <c r="C14" s="5">
         <f>G10</f>
-        <v>9.3956043956043955E-2</v>
+        <v>9.3647401980735318E-2</v>
       </c>
     </row>
     <row r="15" spans="1:36" x14ac:dyDescent="0.2">
@@ -5521,7 +5519,7 @@
   <dimension ref="A1:AJ16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S20" sqref="S20"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6060,8 +6058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q25" sqref="Q25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6852,8 +6850,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ42"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6979,6 +6977,10 @@
         <f>AVERAGE(D3:D5)</f>
         <v>2.3E-2</v>
       </c>
+      <c r="G6" s="5">
+        <f>AVERAGE(D6,D10,D14,D18,D22,D26,D30,D34,D38,D42)</f>
+        <v>4.8251074805849857E-2</v>
+      </c>
       <c r="K6" s="6"/>
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.2">
